--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3165817884958826</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3239797079110615</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2127931825542373</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.1981554373629975</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1523067820375209</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1314601668315417</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.05799901015146319</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08508118290404185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1430107088128128</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1290175634373698</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4450065902788197</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.4604117615427986</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3021833486314691</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2705179443644665</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.410515109996306</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.4205313625346355</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.312416282138553</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3442059006747205</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2074261218299737</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2473425804904836</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1082318502464235</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1080640545265616</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.002390944367786699</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01183244678392301</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.004441678517523667</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.01218659616566261</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1347449535761689</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.05830895963806679</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.1922434907370233</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.2854292822568879</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5440535190971605</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.563643104320362</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07749513127521881</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.04863495344191104</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.3936085854269584</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.382040754536043</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.1720983292609354</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2360995887169145</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3674336262835911</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.4625655148839916</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.308244958821792</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3416725059848368</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1033263000667436</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.09163552809647665</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.40597987305694</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.530226679196272</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5138685434614361</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.503412429321434</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.4403430256536031</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3995170796106945</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.3079186363970094</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3194240927227214</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.129351873434166</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.099008734566795</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.265754926155919</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.842635170195364</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.008596251896746</v>
       </c>
+      <c r="B30" t="n">
+        <v>0.9901153388927074</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.1233675348865726</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.1661487883585251</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.8415133716708552</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.8213669964016488</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.9032013510495921</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.931716483315402</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.6251493983939314</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6374160022790598</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.84241744047656</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8229529797785092</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8035489632270789</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7854012717963574</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7881458898525024</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7599720416278469</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7849657698693027</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.736573011468253</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5851977140947976</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5855179170203317</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7548741819551616</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7561448125044548</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5827451112506821</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5624201316739293</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7558432837800615</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.7178678997850312</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7512321127686247</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7235929828138905</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6823476891995214</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.682510958967441</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6796279978605106</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.676895140647332</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.244490144652158</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.258761971176776</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9610372873181348</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.973519410757964</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8519910124597871</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8661238370075555</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6244334835048058</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6378250778421266</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.04645091009453547</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.0466675888936337</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8439663432109931</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8589558841379439</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8439663432109931</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8589558841379439</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.059062668450738</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.083177447783509</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.1860876489358954</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1866984525573208</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.9823186209134837</v>
       </c>
+      <c r="B55" t="n">
+        <v>-0.993625540527033</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.8969178881665509</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.8870497724212896</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9811320558683094</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9455164010686488</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.19885088546763</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.149612609280108</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8863618361961845</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8587207998944131</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5485449275250009</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5160229371395958</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3638639548426356</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3697546559993954</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.276241857275355</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.225893935686255</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7993783222717643</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7629213430980695</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9050957309475451</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9064074911482318</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.166558227372781</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1290046537481677</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8664416668488926</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8121577785326778</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8830592201143106</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7927760800172408</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3239797079110615</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3093622831163451</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.1981554373629975</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2070764539413797</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1314601668315417</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1431646595838115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08508118290404185</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.0758442733719054</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1290175634373698</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1446280657153557</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.4604117615427986</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4512205850314532</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2705179443644665</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2584775454032165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.4205313625346355</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.4105889929375005</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3442059006747205</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3588729555905856</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2473425804904836</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2385017336592683</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1080640545265616</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.08619714041918237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01183244678392301</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.0118996560469052</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.01218659616566261</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05218774876008093</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.05830895963806679</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01411693445400752</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.2854292822568879</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3464168503908811</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.563643104320362</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5981719936045718</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.04863495344191104</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.03604968763938152</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.382040754536043</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3972573364645569</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2360995887169145</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2935978017111165</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.4625655148839916</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.519205053466896</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3416725059848368</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3776076824557239</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.09163552809647665</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.06027967599379161</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.530226679196272</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.564317052094395</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.503412429321434</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4732361303223824</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3995170796106945</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3793329866124788</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3194240927227214</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.2933557710250015</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.099008734566795</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.069421889075762</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.842635170195364</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.420665640241038</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>0.9901153388927074</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9469909350344954</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.1661487883585251</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2215551915663329</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.8213669964016488</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7849417705186705</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.931716483315402</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.9049151329377539</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6374160022790598</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.665537397882463</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8229529797785092</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.8139125278147399</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7854012717963574</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7679010701018232</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7599720416278469</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7405970643419434</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.736573011468253</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7172636952775983</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5855179170203317</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5813612769236129</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7561448125044548</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7530707326558662</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5624201316739293</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5544038253167535</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.7178678997850312</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6903968288805641</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7235929828138905</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.7086778126739838</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.682510958967441</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.6742917402476475</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.676895140647332</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6582783396307987</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.258761971176776</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.262984666059046</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.973519410757964</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9787528595606133</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8661238370075555</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8725351967226652</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6378250778421266</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6414807974495064</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.0466675888936337</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.04809784013177344</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8589558841379439</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8643473716963861</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8589558841379439</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8643473716963861</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.083177447783509</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.096695474552693</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1866984525573208</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1862255579559371</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-0.993625540527033</v>
       </c>
+      <c r="C55" t="n">
+        <v>-0.9981244871884227</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.8870497724212896</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8834438227905759</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9455164010686488</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9329141727921776</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.149612609280108</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.126906824887453</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8587207998944131</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8468034672072153</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5160229371395958</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4960781952889813</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3697546559993954</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3717217949089451</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.225893935686255</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.206867720350009</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7629213430980695</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7371004760351398</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9064074911482318</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9007103462505319</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1290046537481677</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.109955290616581</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8121577785326778</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7887724666920192</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7927760800172408</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7605940848606052</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3165817884958826</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3239797079110615</v>
+        <v>-0.2997831749105829</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3093622831163451</v>
+        <v>-0.2823340717132394</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2127931825542373</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1981554373629975</v>
+        <v>0.2213465968674888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2070764539413797</v>
+        <v>0.2315938719084131</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1523067820375209</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1314601668315417</v>
+        <v>0.1638914582948199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1431646595838115</v>
+        <v>0.1769144217514632</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.05799901015146319</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08508118290404185</v>
+        <v>-0.04920836358425688</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0758442733719054</v>
+        <v>-0.03974547495026053</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1430107088128128</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1290175634373698</v>
+        <v>0.159229155010963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1446280657153557</v>
+        <v>0.1749800295807246</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4450065902788197</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4604117615427986</v>
+        <v>-0.4370824554597749</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4512205850314532</v>
+        <v>-0.4265180793813819</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3021833486314691</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2705179443644665</v>
+        <v>-0.2795541471843749</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2584775454032165</v>
+        <v>-0.2573482178669795</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.410515109996306</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4205313625346355</v>
+        <v>-0.4045438831751386</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4105889929375005</v>
+        <v>-0.3937775289867715</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.312416282138553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3442059006747205</v>
+        <v>0.3305883237285109</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3588729555905856</v>
+        <v>0.3479642112326698</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2074261218299737</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2473425804904836</v>
+        <v>-0.2009811357140011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2385017336592683</v>
+        <v>-0.1929657026794722</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1082318502464235</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1080640545265616</v>
+        <v>-0.08134847341600106</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08619714041918237</v>
+        <v>-0.05604147822376919</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.002390944367786699</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01183244678392301</v>
+        <v>0.002828604961007235</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0118996560469052</v>
+        <v>0.003674876464929709</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.004441678517523667</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01218659616566261</v>
+        <v>0.03936472424218167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05218774876008093</v>
+        <v>0.07966766727242915</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1347449535761689</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05830895963806679</v>
+        <v>-0.0784770619951347</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01411693445400752</v>
+        <v>-0.02901894616415965</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.1922434907370233</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2854292822568879</v>
+        <v>0.2663150473889699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3464168503908811</v>
+        <v>0.3327828794176409</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5440535190971605</v>
       </c>
       <c r="B17" t="n">
-        <v>0.563643104320362</v>
+        <v>0.5817300000004855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5981719936045718</v>
+        <v>0.6130156015452823</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07749513127521881</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04863495344191104</v>
+        <v>0.0566309450292076</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03604968763938152</v>
+        <v>0.03819302181020207</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.3936085854269584</v>
       </c>
       <c r="B19" t="n">
-        <v>0.382040754536043</v>
+        <v>0.4030029950796304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3972573364645569</v>
+        <v>0.4114595772555285</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.1720983292609354</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2360995887169145</v>
+        <v>0.24031889531072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2935978017111165</v>
+        <v>0.2998439411163769</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3674336262835911</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4625655148839916</v>
+        <v>0.4448595172459415</v>
       </c>
       <c r="C21" t="n">
-        <v>0.519205053466896</v>
+        <v>0.5114454521818258</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.308244958821792</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3416725059848368</v>
+        <v>0.3508498213631931</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3776076824557239</v>
+        <v>0.3871067794613055</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1033263000667436</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09163552809647665</v>
+        <v>-0.06541488236276555</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06027967599379161</v>
+        <v>-0.03357779522570183</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.40597987305694</v>
       </c>
       <c r="B24" t="n">
-        <v>4.530226679196272</v>
+        <v>4.532737832975839</v>
       </c>
       <c r="C24" t="n">
-        <v>4.564317052094395</v>
+        <v>4.549906949876535</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5138685434614361</v>
       </c>
       <c r="B25" t="n">
-        <v>0.503412429321434</v>
+        <v>0.5059606197432779</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4732361303223824</v>
+        <v>0.4812838771670367</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.4403430256536031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3995170796106945</v>
+        <v>0.4388496050477586</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3793329866124788</v>
+        <v>0.4153055876961433</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.3079186363970094</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3194240927227214</v>
+        <v>0.3137994307768761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2933557710250015</v>
+        <v>0.2918728308909141</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.129351873434166</v>
       </c>
       <c r="B28" t="n">
-        <v>1.099008734566795</v>
+        <v>1.11590431386523</v>
       </c>
       <c r="C28" t="n">
-        <v>1.069421889075762</v>
+        <v>1.083150543661359</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.265754926155919</v>
       </c>
       <c r="B29" t="n">
-        <v>5.842635170195364</v>
+        <v>5.807625713805196</v>
       </c>
       <c r="C29" t="n">
-        <v>5.420665640241038</v>
+        <v>5.346451823179435</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.008596251896746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9901153388927074</v>
+        <v>0.9916957704610752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9469909350344954</v>
+        <v>0.9482437885034567</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.1233675348865726</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1661487883585251</v>
+        <v>-0.1604563312911147</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2215551915663329</v>
+        <v>-0.2160094535843192</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.8415133716708552</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8213669964016488</v>
+        <v>0.8187632780202023</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7849417705186705</v>
+        <v>0.781030889542029</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.9032013510495921</v>
       </c>
       <c r="B33" t="n">
-        <v>0.931716483315402</v>
+        <v>0.8990474586502597</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9049151329377539</v>
+        <v>0.8787370845010629</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.6251493983939314</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6374160022790598</v>
+        <v>-0.6292648004388127</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.665537397882463</v>
+        <v>-0.6507012999109409</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.84241744047656</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8229529797785092</v>
+        <v>0.8319206323793923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8139125278147399</v>
+        <v>0.8218666675194118</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8035489632270789</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7854012717963574</v>
+        <v>0.7856639771418961</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7679010701018232</v>
+        <v>0.7693616306851152</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7881458898525024</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7599720416278469</v>
+        <v>0.7657448627624103</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7405970643419434</v>
+        <v>0.7455412835311658</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7849657698693027</v>
       </c>
       <c r="B38" t="n">
-        <v>0.736573011468253</v>
+        <v>0.7594274471392801</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7172636952775983</v>
+        <v>0.7362012578158906</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5851977140947976</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5855179170203317</v>
+        <v>0.5828628443902168</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5813612769236129</v>
+        <v>0.5806585922460081</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7548741819551616</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7561448125044548</v>
+        <v>0.7545195054032509</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7530707326558662</v>
+        <v>0.7531369528812434</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5827451112506821</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5624201316739293</v>
+        <v>0.5736053420197791</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5544038253167535</v>
+        <v>0.5659644968844423</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7558432837800615</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7178678997850312</v>
+        <v>0.7225964188402608</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6903968288805641</v>
+        <v>0.6926609629241252</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7512321127686247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7235929828138905</v>
+        <v>0.7337029777463997</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7086778126739838</v>
+        <v>0.717858937027485</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6823476891995214</v>
       </c>
       <c r="B44" t="n">
-        <v>0.682510958967441</v>
+        <v>0.6742232400413685</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6742917402476475</v>
+        <v>0.6672250598973204</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6796279978605106</v>
       </c>
       <c r="B45" t="n">
-        <v>0.676895140647332</v>
+        <v>0.6598447411032125</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6582783396307987</v>
+        <v>0.6428954243687939</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.244490144652158</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.258761971176776</v>
+        <v>-1.250866761297211</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.262984666059046</v>
+        <v>-1.254761354839859</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9610372873181348</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.973519410757964</v>
+        <v>-0.9684707031194607</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9787528595606133</v>
+        <v>-0.9733229809055314</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8519910124597871</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8661238370075555</v>
+        <v>-0.8614117227282849</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8725351967226652</v>
+        <v>-0.8672692748034503</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6244334835048058</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6378250778421266</v>
+        <v>-0.6303261647878988</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6414807974495064</v>
+        <v>-0.6335504398257086</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.04645091009453547</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.0466675888936337</v>
+        <v>-0.04745076767031046</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04809784013177344</v>
+        <v>-0.04784744882433194</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8439663432109931</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8589558841379439</v>
+        <v>-0.8505919969084399</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8643473716963861</v>
+        <v>-0.8541424023608495</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8439663432109931</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8589558841379439</v>
+        <v>-0.8505919969084399</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8643473716963861</v>
+        <v>-0.8541424023608495</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.059062668450738</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083177447783509</v>
+        <v>-1.078203804713423</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.096695474552693</v>
+        <v>-1.092381861724099</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.1860876489358954</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1866984525573208</v>
+        <v>-0.1856291984996226</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1862255579559371</v>
+        <v>-0.1838936610819277</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-0.9823186209134837</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.993625540527033</v>
+        <v>-0.9879768661455617</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9981244871884227</v>
+        <v>-0.9915399417583468</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.8969178881665509</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8870497724212896</v>
+        <v>-0.8902972652459165</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8834438227905759</v>
+        <v>-0.8842722965029342</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9811320558683094</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9455164010686488</v>
+        <v>-0.9630652003590905</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9329141727921776</v>
+        <v>-0.9459093158685727</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.19885088546763</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.149612609280108</v>
+        <v>-1.164950966242617</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.126906824887453</v>
+        <v>-1.133883355160749</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8863618361961845</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8587207998944131</v>
+        <v>-0.8680778599779868</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8468034672072153</v>
+        <v>-0.8499787085037546</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5485449275250009</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5160229371395958</v>
+        <v>-0.5206320563400149</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4960781952889813</v>
+        <v>-0.49453003157713</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3638639548426356</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3697546559993954</v>
+        <v>0.3668523431147675</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3717217949089451</v>
+        <v>0.3700907487945039</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.276241857275355</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.225893935686255</v>
+        <v>-1.252052505985923</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.206867720350009</v>
+        <v>-1.229094600639659</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7993783222717643</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7629213430980695</v>
+        <v>-0.7626231060648025</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7371004760351398</v>
+        <v>-0.7263265570317615</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9050957309475451</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9064074911482318</v>
+        <v>-0.8999310999636885</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9007103462505319</v>
+        <v>-0.8911224901163964</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.166558227372781</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1290046537481677</v>
+        <v>-0.1389193221111201</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.109955290616581</v>
+        <v>-0.1133190903766008</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8664416668488926</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8121577785326778</v>
+        <v>-0.8312520780885234</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7887724666920192</v>
+        <v>-0.8004129880306827</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8830592201143106</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7927760800172408</v>
+        <v>-0.8328756808165422</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7605940848606052</v>
+        <v>-0.7906371324403927</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3165817884958826</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2997831749105829</v>
+        <v>-0.3239797079110615</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2823340717132394</v>
+        <v>-0.3093622831163451</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2951056968044581</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.281659107639499</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2127931825542373</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2213465968674888</v>
+        <v>0.1981554373629975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2315938719084131</v>
+        <v>0.2070764539413797</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2169806086954304</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2268966025482406</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1523067820375209</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1638914582948199</v>
+        <v>0.1314601668315417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1769144217514632</v>
+        <v>0.1431646595838115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.155722516842765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1682514883545979</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.05799901015146319</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.04920836358425688</v>
+        <v>-0.08508118290404185</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03974547495026053</v>
+        <v>-0.0758442733719054</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.0668888729714044</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05875336195302717</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1430107088128128</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159229155010963</v>
+        <v>0.1290175634373698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1749800295807246</v>
+        <v>0.1446280657153557</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1595896857660735</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1732006853884808</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4450065902788197</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4370824554597749</v>
+        <v>-0.4604117615427986</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4265180793813819</v>
+        <v>-0.4512205850314532</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4414007614573875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4315106509063877</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3021833486314691</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2795541471843749</v>
+        <v>-0.2705179443644665</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2573482178669795</v>
+        <v>-0.2584775454032165</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2457522000419311</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2329860986406218</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.410515109996306</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4045438831751386</v>
+        <v>-0.4205313625346355</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3937775289867715</v>
+        <v>-0.4105889929375005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3983383449224077</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.384842012908065</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.312416282138553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3305883237285109</v>
+        <v>0.3442059006747205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3479642112326698</v>
+        <v>0.3588729555905856</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726771545349703</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3849568979756428</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2074261218299737</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2009811357140011</v>
+        <v>-0.2473425804904836</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1929657026794722</v>
+        <v>-0.2385017336592683</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2295179370961047</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2209315470608058</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1082318502464235</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08134847341600106</v>
+        <v>-0.1080640545265616</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05604147822376919</v>
+        <v>-0.08619714041918237</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06637391040061855</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04914059488430657</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.002390944367786699</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002828604961007235</v>
+        <v>-0.01183244678392301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003674876464929709</v>
+        <v>-0.0118996560469052</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01148368831016465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01106332846367018</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.004441678517523667</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03936472424218167</v>
+        <v>0.01218659616566261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07966766727242915</v>
+        <v>0.05218774876008093</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08836179577735748</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1200420080997457</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1347449535761689</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0784770619951347</v>
+        <v>-0.05830895963806679</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02901894616415965</v>
+        <v>-0.01411693445400752</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02468361566765102</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05764278502131422</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.1922434907370233</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2663150473889699</v>
+        <v>0.2854292822568879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3327828794176409</v>
+        <v>0.3464168503908811</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4009131703446194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4480763620985666</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5440535190971605</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5817300000004855</v>
+        <v>0.563643104320362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6130156015452823</v>
+        <v>0.5981719936045718</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6273586310495535</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6507584892659005</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07749513127521881</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0566309450292076</v>
+        <v>0.04863495344191104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03819302181020207</v>
+        <v>0.03604968763938152</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02511451067269434</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01523885231427832</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.3936085854269584</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4030029950796304</v>
+        <v>0.382040754536043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4114595772555285</v>
+        <v>0.3972573364645569</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4106325551481754</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4215373026184711</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.1720983292609354</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24031889531072</v>
+        <v>0.2360995887169145</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2998439411163769</v>
+        <v>0.2935978017111165</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3440917469733034</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3869824702177221</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3674336262835911</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4448595172459415</v>
+        <v>0.4625655148839916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5114454521818258</v>
+        <v>0.519205053466896</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.567757011915586</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6078962487866389</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.308244958821792</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3508498213631931</v>
+        <v>0.3416725059848368</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3871067794613055</v>
+        <v>0.3776076824557239</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.408419425252609</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4336515563863449</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1033263000667436</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06541488236276555</v>
+        <v>-0.09163552809647665</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03357779522570183</v>
+        <v>-0.06027967599379161</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03384627223570166</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01249861779688013</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.40597987305694</v>
       </c>
       <c r="B24" t="n">
-        <v>4.532737832975839</v>
+        <v>4.530226679196272</v>
       </c>
       <c r="C24" t="n">
-        <v>4.549906949876535</v>
+        <v>4.564317052094395</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.517582289717446</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.405037572896482</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5138685434614361</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5059606197432779</v>
+        <v>0.503412429321434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4812838771670367</v>
+        <v>0.4732361303223824</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4442732946126758</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4181124664046063</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.4403430256536031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4388496050477586</v>
+        <v>0.3995170796106945</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4153055876961433</v>
+        <v>0.3793329866124788</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3567937659096443</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3337624645120744</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.3079186363970094</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3137994307768761</v>
+        <v>0.3194240927227214</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2918728308909141</v>
+        <v>0.2933557710250015</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2662879357136232</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2395090071076503</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.129351873434166</v>
       </c>
       <c r="B28" t="n">
-        <v>1.11590431386523</v>
+        <v>1.099008734566795</v>
       </c>
       <c r="C28" t="n">
-        <v>1.083150543661359</v>
+        <v>1.069421889075762</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.037770234966153</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.006044280207047</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.265754926155919</v>
       </c>
       <c r="B29" t="n">
-        <v>5.807625713805196</v>
+        <v>5.842635170195364</v>
       </c>
       <c r="C29" t="n">
-        <v>5.346451823179435</v>
+        <v>5.420665640241038</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.009052313905957</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.61151564955435</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.008596251896746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9916957704610752</v>
+        <v>0.9901153388927074</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9482437885034567</v>
+        <v>0.9469909350344954</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9032583720412695</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8621207883974346</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.1233675348865726</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1604563312911147</v>
+        <v>-0.1661487883585251</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2160094535843192</v>
+        <v>-0.2215551915663329</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2717875579200011</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3162886660036299</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.8415133716708552</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8187632780202023</v>
+        <v>0.8213669964016488</v>
       </c>
       <c r="C32" t="n">
-        <v>0.781030889542029</v>
+        <v>0.7849417705186705</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7496821511448362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7164581395144655</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.9032013510495921</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8990474586502597</v>
+        <v>0.931716483315402</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8787370845010629</v>
+        <v>0.9049151329377539</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8792998988590441</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8557018617419659</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.6251493983939314</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6292648004388127</v>
+        <v>-0.6374160022790598</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6507012999109409</v>
+        <v>-0.665537397882463</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.6934284907431428</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.71926888293991</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.84241744047656</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8319206323793923</v>
+        <v>0.8229529797785092</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8218666675194118</v>
+        <v>0.8139125278147399</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8060482353208822</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7987835857983867</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8035489632270789</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7856639771418961</v>
+        <v>0.7854012717963574</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7693616306851152</v>
+        <v>0.7679010701018232</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7530758646338375</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.740278527206222</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7881458898525024</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7657448627624103</v>
+        <v>0.7599720416278469</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7455412835311658</v>
+        <v>0.7405970643419434</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7240655154073049</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7097441638984989</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7849657698693027</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7594274471392801</v>
+        <v>0.736573011468253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7362012578158906</v>
+        <v>0.7172636952775983</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7004664914487126</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6855172595776524</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5851977140947976</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5828628443902168</v>
+        <v>0.5855179170203317</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5806585922460081</v>
+        <v>0.5813612769236129</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5782276845449104</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5755308312763834</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7548741819551616</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7545195054032509</v>
+        <v>0.7561448125044548</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7531369528812434</v>
+        <v>0.7530707326558662</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7503382177282049</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7474351305597444</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5827451112506821</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5736053420197791</v>
+        <v>0.5624201316739293</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5659644968844423</v>
+        <v>0.5544038253167535</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5486012461902333</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5442323940907038</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7558432837800615</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7225964188402608</v>
+        <v>0.7178678997850312</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6926609629241252</v>
+        <v>0.6903968288805641</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6662705758033712</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6449146292890382</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7512321127686247</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7337029777463997</v>
+        <v>0.7235929828138905</v>
       </c>
       <c r="C43" t="n">
-        <v>0.717858937027485</v>
+        <v>0.7086778126739838</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6961188762145806</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6852093248637483</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6823476891995214</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6742232400413685</v>
+        <v>0.682510958967441</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6672250598973204</v>
+        <v>0.6742917402476475</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6679788543289849</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6628624381678773</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6796279978605106</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6598447411032125</v>
+        <v>0.676895140647332</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6428954243687939</v>
+        <v>0.6582783396307987</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6428730729455288</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6300272185980111</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.244490144652158</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.250866761297211</v>
+        <v>-1.258761971176776</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.254761354839859</v>
+        <v>-1.262984666059046</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.266611114531243</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.269546803655227</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9610372873181348</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9684707031194607</v>
+        <v>-0.973519410757964</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9733229809055314</v>
+        <v>-0.9787528595606133</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9831894878414708</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9868684582793954</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8519910124597871</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8614117227282849</v>
+        <v>-0.8661238370075555</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8672692748034503</v>
+        <v>-0.8725351967226652</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8772899630234877</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.880609669866393</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6244334835048058</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6303261647878988</v>
+        <v>-0.6378250778421266</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6335504398257086</v>
+        <v>-0.6414807974495064</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6439300494567668</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.645439551992443</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.04645091009453547</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04745076767031046</v>
+        <v>-0.0466675888936337</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04784744882433194</v>
+        <v>-0.04809784013177344</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.04909847020926886</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05004615127271864</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8439663432109931</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8505919969084399</v>
+        <v>-0.8589558841379439</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8541424023608495</v>
+        <v>-0.8643473716963861</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8683839232675914</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8712142478188347</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8439663432109931</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8505919969084399</v>
+        <v>-0.8589558841379439</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8541424023608495</v>
+        <v>-0.8643473716963861</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8683839232675914</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8712142478188347</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.059062668450738</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.078203804713423</v>
+        <v>-1.083177447783509</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.092381861724099</v>
+        <v>-1.096695474552693</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.107762864868827</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.116552343882033</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.1860876489358954</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1856291984996226</v>
+        <v>-0.1866984525573208</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1838936610819277</v>
+        <v>-0.1862255579559371</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1851842601744765</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1839541820977837</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-0.9823186209134837</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9879768661455617</v>
+        <v>-0.993625540527033</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9915399417583468</v>
+        <v>-0.9981244871884227</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.001981158626027</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.005214899595537</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.8969178881665509</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8902972652459165</v>
+        <v>-0.8870497724212896</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8842722965029342</v>
+        <v>-0.8834438227905759</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8808917751548818</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8792413775838478</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9811320558683094</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9630652003590905</v>
+        <v>-0.9455164010686488</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9459093158685727</v>
+        <v>-0.9329141727921776</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9217743867017627</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9121361636797354</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.19885088546763</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.164950966242617</v>
+        <v>-1.149612609280108</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.133883355160749</v>
+        <v>-1.126906824887453</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.107034237706804</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.089863134883484</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8863618361961845</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8680778599779868</v>
+        <v>-0.8587207998944131</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8499787085037546</v>
+        <v>-0.8468034672072153</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.8356162180197534</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8252526576901817</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5485449275250009</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5206320563400149</v>
+        <v>-0.5160229371395958</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.49453003157713</v>
+        <v>-0.4960781952889813</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4779129566207586</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4617633098022419</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3638639548426356</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3668523431147675</v>
+        <v>0.3697546559993954</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3700907487945039</v>
+        <v>0.3717217949089451</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3742133307001154</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3765940295057355</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.276241857275355</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.252052505985923</v>
+        <v>-1.225893935686255</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.229094600639659</v>
+        <v>-1.206867720350009</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.190202669450465</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.175841793752575</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7993783222717643</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7626231060648025</v>
+        <v>-0.7629213430980695</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7263265570317615</v>
+        <v>-0.7371004760351398</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7125073593887912</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6894967394457916</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9050957309475451</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8999310999636885</v>
+        <v>-0.9064074911482318</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8911224901163964</v>
+        <v>-0.9007103462505319</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8937566734102732</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8860632441221484</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.166558227372781</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1389193221111201</v>
+        <v>-0.1290046537481677</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1133190903766008</v>
+        <v>-0.109955290616581</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.09262663605800676</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07738443671948579</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8664416668488926</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8312520780885234</v>
+        <v>-0.8121577785326778</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8004129880306827</v>
+        <v>-0.7887724666920192</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7689191126246019</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7524966189498451</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8830592201143106</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8328756808165422</v>
+        <v>-0.7927760800172408</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7906371324403927</v>
+        <v>-0.7605940848606052</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7342722390111556</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7133354046407581</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.281659107639499</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2692103327928095</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2268966025482406</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2364408028915438</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1682514883545979</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1804155375000581</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05875336195302717</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05156114440323581</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1732006853884808</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1853184724270312</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4315106509063877</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4218525417256734</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2329860986406218</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2204333968223251</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.384842012908065</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3708088776054078</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3849568979756428</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3956535189830513</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2209315470608058</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2129080480680582</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04914059488430657</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03461186675262058</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01106332846367018</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01075973430549861</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1200420080997457</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1469613109973155</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.05764278502131422</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08458573326577866</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4480763620985666</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4876006176277855</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.6507584892659005</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6683791568565862</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.01523885231427832</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.006052430208418544</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4215373026184711</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4298658450142458</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3869824702177221</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4220966306195384</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.6078962487866389</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.639966394327607</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4336515563863449</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4533028439414314</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.01249861779688013</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.003860993357944015</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.405037572896482</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.240789204070819</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4181124664046063</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3948268267298625</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3337624645120744</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3108283097456948</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2395090071076503</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2135285078157003</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.006044280207047</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9751707621038996</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.61151564955435</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.231858175732354</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.8621207883974346</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8240827460595628</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3162886660036299</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3550883946725236</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.7164581395144655</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6856554556777501</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8557018617419659</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8343171349057291</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.71926888293991</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7428023184107111</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.7987835857983867</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.792301531088032</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.740278527206222</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7295998834817958</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7097441638984989</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6977243501917473</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6855172595776524</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6724275651597857</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5755308312763834</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5733652956233888</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7474351305597444</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7446184941753986</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5442323940907038</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5411746388497913</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6449146292890382</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6264348457757527</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6852093248637483</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6759356575049301</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6628624381678773</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6589539131316839</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6300272185980111</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.619827954603412</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.269546803655227</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.271941023717215</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9868684582793954</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.989913541241914</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.880609669866393</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8827257199870456</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.645439551992443</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6461848933878471</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05004615127271864</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05096905891251972</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8712142478188347</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8729926506290935</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8712142478188347</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8729926506290935</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.116552343882033</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.12338464644061</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1839541820977837</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1826149922943605</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.005214899595537</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.007940364121654</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8792413775838478</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8783955812196975</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9121361636797354</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.904149562482238</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.089863134883484</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.075419460745016</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8252526576901817</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8158371724809439</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4617633098022419</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.447685176906131</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3765940295057355</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3788076985524271</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.175841793752575</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.163904408388636</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6894967394457916</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6682250139636965</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8860632441221484</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8781037611100284</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07738443671948579</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06420740924533617</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7524966189498451</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7393847453023572</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7133354046407581</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6973673340092521</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2692103327928095</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2578986411860263</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2364408028915438</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2453227799914771</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1804155375000581</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1919480700287565</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05156114440323581</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04538424005407562</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1853184724270312</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1958679911738958</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4218525417256734</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.412670203166895</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2204333968223251</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2083068590633673</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3708088776054078</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3568208566734231</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3956535189830513</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.4047591827827245</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2129080480680582</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.205571188480818</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03461186675262058</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.02280447936669473</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01075973430549861</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01065840161057119</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1469613109973155</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1690376516081653</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.08458573326577866</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1055451599057713</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4876006176277855</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5194575683480728</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6683791568565862</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6804095596319575</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.006052430208418544</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.002719387138270177</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4298658450142458</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4356211446356799</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.4220966306195384</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.4495171509980966</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.639966394327607</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6644568571345036</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4533028439414314</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.4675420730189666</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.003860993357944015</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.01545685453213277</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.240789204070819</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.037720347053365</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3948268267298625</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3743597102967494</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.3108283097456948</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2884513070782034</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2135285078157003</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1887163981780954</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9751707621038996</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.945762685172257</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.231858175732354</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.873260707155925</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8240827460595628</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.789406381513057</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3550883946725236</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3883656488972829</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6856554556777501</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6575084008231946</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8343171349057291</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8152194958044289</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7428023184107111</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.763931265474653</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.792301531088032</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7867293293348264</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7295998834817958</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7210573841918037</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6977243501917473</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6880204494589255</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6724275651597857</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6611736393993993</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5733652956233888</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5717886660438002</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7446184941753986</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7420884118629799</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5411746388497913</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5392980886246794</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6264348457757527</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6108512625053305</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6759356575049301</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6682539093305522</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6589539131316839</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6562287482228832</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.619827954603412</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6122668502094584</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.271941023717215</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.273931649425215</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.989913541241914</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9924419116078446</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8827257199870456</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8838596830899118</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6461848933878471</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6463305472602727</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.05096905891251972</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.05188924971870612</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8729926506290935</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8738777581177435</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8729926506290935</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8738777581177435</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.12338464644061</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.128566962488022</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.1826149922943605</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1812373295342468</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.007940364121654</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.010264161759001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8783955812196975</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8782607634742859</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.904149562482238</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8978922261194587</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.075419460745016</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.063665601156306</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8158371724809439</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8074602918791924</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.447685176906131</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4356815563614029</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3788076985524271</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3808153690144362</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.163904408388636</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.154425763586487</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6682250139636965</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6488033930444138</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8781037611100284</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8702697340962304</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06420740924533617</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05303614668709974</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7393847453023572</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7294063740959029</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.6973673340092521</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6859167829065118</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2578986411860263</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2478160965391729</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2453227799914771</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2533309420871111</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1919480700287565</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2026441936307856</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04538424005407562</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04025464009950395</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1958679911738958</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2048270409478642</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.412670203166895</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4041534857207154</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2083068590633673</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1967819755661889</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3568208566734231</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3433439152839263</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.4047591827827245</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.4123050888178465</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.205571188480818</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.1990090388985674</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.02280447936669473</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01365753612382362</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01065840161057119</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01081716136246185</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1690376516081653</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1863426237355429</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1055451599057713</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1207244205097015</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.5194575683480728</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5438455397453409</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6804095596319575</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6871797370267849</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.002719387138270177</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.01127109731115795</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4356211446356799</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4388897833234579</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.4495171509980966</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.4695362000308401</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6644568571345036</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6819616060701414</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.4675420730189666</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4766707950478658</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.01545685453213277</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.022610381154783</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.037720347053365</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.807383248921461</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3743597102967494</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3566065519666348</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2884513070782034</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2669987323053707</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1887163981780954</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1653564506317479</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.945762685172257</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.9182856068778558</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.873260707155925</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.538228504132717</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.789406381513057</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7582334854994797</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3883656488972829</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4163916309882252</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6575084008231946</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6321536887377627</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8152194958044289</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.7984178963976034</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.763931265474653</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7826341516145332</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7867293293348264</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7821396696888228</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7210573841918037</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.714602064425861</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6880204494589255</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.6805772750617134</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6611736393993993</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6516962748603534</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5717886660438002</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.5708229065548731</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7420884118629799</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7399872088422086</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5392980886246794</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5384659417354069</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6108512625053305</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.5981053869071621</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6682539093305522</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6620896619525974</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6562287482228832</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6546289160823067</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6122668502094584</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6072519747619605</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.273931649425215</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.275641695287716</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9924419116078446</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9945624732092205</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8838596830899118</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8842197996934438</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6463305472602727</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6460287197798388</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.05188924971870612</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05282536125556325</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8738777581177435</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8740277923115964</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8738777581177435</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8740277923115964</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.128566962488022</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.132387391134485</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1812373295342468</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.179884275285175</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.010264161759001</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.012284019993852</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8782607634742859</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.878748634411341</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8978922261194587</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8933779009105876</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.063665601156306</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.054507388514025</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8074602918791924</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8001783434190637</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4356815563614029</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4257102767248602</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3808153690144362</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3825893091434792</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.154425763586487</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.147369792417864</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6488033930444138</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6312990599721521</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8702697340962304</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8628732957070011</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05303614668709974</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04378214055887301</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7294063740959029</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7223411795387709</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.6859167829065118</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6785117774605841</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2478160965391729</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2390124239574484</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2533309420871111</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2603227947176968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2026441936307856</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2123555812548321</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04025464009950395</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.03617060978685491</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2048270409478642</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2122178311116709</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4041534857207154</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3964427033653106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1967819755661889</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1859975563020293</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3433439152839263</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3307380839524784</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.4123050888178465</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.418354423601383</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.1990090388985674</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1932773175645784</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01365753612382362</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.007047958569851208</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01081716136246185</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01127027803690167</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1863426237355429</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.1990717960841636</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.1207244205097015</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1304608419912279</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5438455397453409</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5611428846534697</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6871797370267849</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.6891248009370028</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.01127109731115795</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01973114375942082</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4388897833234579</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.4398234632795962</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.4695362000308401</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.4826091989238898</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6819616060701414</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6931470146662047</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4766707950478658</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.4810903629961822</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.022610381154783</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.02571401627215184</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.807383248921461</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.559950877504426</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3566065519666348</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3414310465298516</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2669987323053707</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.2467591169654801</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1653564506317479</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1436620352991615</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.9182856068778558</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8930802328735529</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.538228504132717</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.228591194588955</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7582334854994797</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7306120906203978</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4163916309882252</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4395010079263265</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6321536887377627</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.609648542559079</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.7984178963976034</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7838727564055378</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7826341516145332</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7989458995798002</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7821396696888228</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7785593221824355</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.714602064425861</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7101321783462416</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.6805772750617134</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.6752843457013501</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6516962748603534</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6439074017319726</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.5708229065548731</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5704612828830489</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7399872088422086</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7384076970456118</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5384659417354069</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5385390069496939</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.5981053869071621</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5880751315091488</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6620896619525974</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6573447773399271</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6546289160823067</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6540710468490514</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6072519747619605</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6046265905318764</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.275641695287716</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.277178483469148</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9945624732092205</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9963744078770492</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8842197996934438</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8839977468433992</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6460287197798388</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6454172479597957</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05282536125556325</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05379244581145101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8740277923115964</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8735959285942638</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8740277923115964</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8735959285942638</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.132387391134485</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.135111611578307</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.179884275285175</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1786103671609613</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.012284019993852</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.014087612696662</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.878748634411341</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8797762900121654</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8933779009105876</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8905673614337546</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.054507388514025</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.04780498809506</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8001783434190637</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7940165084339099</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4257102767248602</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4176915265628802</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3825893091434792</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3841119898808505</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.147369792417864</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.142642135900531</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6312990599721521</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6157381947307972</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8628732957070011</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8561537906145607</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04378214055887301</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03633337368531207</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7223411795387709</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7179374275895426</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6785117774605841</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6746723530612213</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2390124239574484</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2315003547104181</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2603227947176968</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2662153234941283</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2123555812548321</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2209845401037308</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.03617060978685491</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03310267750202656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2122178311116709</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.2180987610357412</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3964427033653106</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3896335423792756</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1859975563020293</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1760574278702772</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3307380839524784</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.31926825703566</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.418354423601383</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.422995625625496</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1932773175645784</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1884031487978188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.007047958569851208</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.002804843348390269</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01127027803690167</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01203241152167623</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.1990717960841636</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2075166361030465</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1304608419912279</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1351915547503212</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5611428846534697</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.571864493823721</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.6891248009370028</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.6867525033262767</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01973114375942082</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02817473083039256</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.4398234632795962</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.4386220473664039</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.4826091989238898</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4893122111877158</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6931470146662047</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.6987230823806911</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.4810903629961822</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.4812720085195774</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.02571401627215184</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.02520755452315346</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.559950877504426</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.304211188241942</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3414310465298516</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3286727427091439</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.2467591169654801</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2279486760547725</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1436620352991615</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1237819510186564</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8930802328735529</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8703759632709123</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.228591194588955</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.945529525835196</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7306120906203978</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7065107999267917</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4395010079263265</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4580746439801245</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.609648542559079</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.5899819154585042</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7838727564055378</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7715048097311006</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7989458995798002</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.8129474048514371</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.7785593221824355</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7759774890666773</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7101321783462416</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7075059289980155</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.6752843457013501</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.6719891622570695</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6439074017319726</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6376965711073176</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5704612828830489</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5706747290474405</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7384076970456118</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7374011862497762</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5385390069496939</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.539379565220454</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.5880751315091488</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5805891050450973</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6573447773399271</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6539037579930453</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6540710468490514</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6544537909429242</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6046265905318764</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6041863126919809</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.277178483469148</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.278633579335595</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9963744078770492</v>
       </c>
+      <c r="J47" t="n">
+        <v>-0.9979663004607331</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8839977468433992</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8833664823583867</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6454172479597957</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6446183433731753</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05379244581145101</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.0548020341113467</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8735959285942638</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8727266779672294</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8735959285942638</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8727266779672294</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.135111611578307</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.13698071297367</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1786103671609613</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1774611452598252</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.014087612696662</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.015751961945258</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8797762900121654</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8812664086969468</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8905673614337546</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8893790708402942</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.04780498809506</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.043383574353151</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7940165084339099</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7889725463025125</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4176915265628802</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4115153691492796</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3841119898808505</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3853749285065972</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.142642135900531</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.140102678435255</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6157381947307972</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6021098981570205</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8561537906145607</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8502851077094263</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03633337368531207</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03055981223162118</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7179374275895426</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7159229449294314</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6746723530612213</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6739220587726972</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2315003547104181</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2252612137024209</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2662153234941283</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.27097559351861</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2209845401037308</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2284776733246868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03310267750202656</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.03099935639710127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.2180987610357412</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2225566101721729</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3896335423792756</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.383782377678784</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1760574278702772</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1670329508796926</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.31926825703566</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.309115471941248</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.422995625625496</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4263360172723615</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1884031487978188</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1843890431882213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.002804843348390269</v>
       </c>
+      <c r="K12" t="n">
+        <v>-0.0007226414052689534</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01203241152167623</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01310236771492221</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2075166361030465</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2120387579966654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1351915547503212</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1354226374183265</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.571864493823721</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.576622272603509</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.6867525033262767</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6806146740710719</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02817473083039256</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.03663528310245009</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.4386220473664039</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4355183481069965</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.4893122111877158</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.4903035537315098</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.6987230823806911</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.6994181684622893</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.4812720085195774</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.4777303630145012</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.02520755452315346</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.02155731138849568</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.304211188241942</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.047596508307304</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3286727427091439</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3181532948984547</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2279486760547725</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2107176930066904</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1237819510186564</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1058063589183399</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8703759632709123</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8503041665465449</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.945529525835196</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.689621291807943</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7065107999267917</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.6858314379768651</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4580746439801245</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4725243012026486</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.5899819154585042</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.5730851820883339</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7715048097311006</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7612029001826564</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.8129474048514371</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.8247563231555147</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7759774890666773</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7743535900167647</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7075059289980155</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7065529787658384</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.6719891622570695</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.6705092430852115</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6376965711073176</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6329370509196409</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5706747290474405</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5714175432758446</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7374011862497762</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7369849921781334</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.539379565220454</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5408545536163268</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5805891050450973</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.5754397954350028</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6539037579930453</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6516395269391698</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6544537909429242</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6556642885150049</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6041863126919809</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6056943763030773</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.278633579335595</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.280083261488663</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-0.9979663004607331</v>
       </c>
+      <c r="K47" t="n">
+        <v>-0.9994157684192947</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8833664823583867</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8824790482979021</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6446183433731753</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6437380676096937</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.0548020341113467</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.05586236684850625</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8727266779672294</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8715532542137399</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8727266779672294</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8715532542137399</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.13698071297367</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.13821003361963</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1774611452598252</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1764731597246571</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.015751961945258</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.017343319125375</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8812664086969468</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8831474794828247</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8893790708402942</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.8896992101805257</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.043383574353151</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.041043347909428</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7889725463025125</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7850208634901121</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4115153691492796</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4070490057454872</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3853749285065972</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3863774289062417</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.140102678435255</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.139577286933852</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6021098981570205</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5903708324056482</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8502851077094263</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8453834680246373</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03055981223162118</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.0263187119972149</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7159229449294314</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7160149908239982</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6739220587726972</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6757978529504751</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2252612137024209</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2202504983457496</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.27097559351861</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2746117574589697</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.2284776733246868</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2348194093270569</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.03099935639710127</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.02979248444555076</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2225566101721729</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.225699287360367</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.383782377678784</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3789117637392452</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1670329508796926</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.158966119532042</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.309115471941248</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3003883130437347</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4263360172723615</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4284959471943376</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1843890431882213</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1812169319091816</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>-0.0007226414052689534</v>
       </c>
+      <c r="L12" t="n">
+        <v>-0.0005729841204998934</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01310236771492221</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01446656238047376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2120387579966654</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2130468740825087</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.1354226374183265</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1317019495425774</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.576622272603509</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.576090075609579</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6806146740710719</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6712827158090637</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.03663528310245009</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.04511451618915741</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4355183481069965</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4307648171502901</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.4903035537315098</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.4862900678573938</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.6994181684622893</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.6959574282127341</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.4777303630145012</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4710006125796701</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.02155731138849568</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.015238287489412</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.047596508307304</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.796242042604334</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3181532948984547</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3096823189946426</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2107176930066904</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.195157573242332</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1058063589183399</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.08977339293387349</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8503041665465449</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8329117187329308</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.689621291807943</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.460900696221851</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.6858314379768651</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6684214420044752</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4725243012026486</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4832788445886559</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.5730851820883339</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5588426695979213</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7612029001826564</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.7528313680799072</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.8247563231555147</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.8345184188691818</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7743535900167647</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7736243661343776</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7065529787658384</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7070846213498601</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.6705092430852115</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6706427843809306</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6329370509196409</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6294913924195733</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5714175432758446</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.5726323876952769</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7369849921781334</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7371493358565354</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5408545536163268</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.542838084141727</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.5754397954350028</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.5723954283944508</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6516395269391698</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6504185448021113</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6556642885150049</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6575837232173206</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6056943763030773</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6088949089582616</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.280083261488663</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.281589366675803</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-0.9994157684192947</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.000789487760333</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8824790482979021</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.88146816691801</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6437380676096937</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6428663916686896</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.05586236684850625</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05697872723808399</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8715532542137399</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8701957959448159</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8715532542137399</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8701957959448159</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.13821003361963</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.138988843856866</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1764731597246571</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.1756743164203457</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.017343319125375</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.018917406449122</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8831474794828247</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8853539876718006</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.8896992101805257</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.8913908353028993</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.041043347909428</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.040568635430809</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7850208634901121</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7821166674566479</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4070490057454872</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4041435592637659</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3863774289062417</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3871252864745541</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.139577286933852</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.140868491386421</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5903708324056482</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5804502582057058</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8453834680246373</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8415153585659837</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.0263187119972149</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02345955933741962</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7160149908239982</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7179288655143272</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6757978529504751</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6798582424434149</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2202504983457496</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2164032531648565</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2746117574589697</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2771646504917252</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2348194093270569</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2400256276961328</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.02979248444555076</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02940207817617193</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.225699287360367</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2276492662612771</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3789117637392452</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3750158895047663</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.158966119532042</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1518730252825341</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3003883130437347</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.2931341081926423</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4284959471943376</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4296035517446482</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1812169319091816</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1788521006528057</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>-0.0005729841204998934</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.002115023716400856</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01446656238047376</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01610214313746201</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2130468740825087</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.2109766638337482</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1317019495425774</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1245958191332861</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.576090075609579</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5709733586288821</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6712827158090637</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.6593271603819536</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.04511451618915741</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.05359113141359903</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4307648171502901</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4246222004514313</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.4862900678573938</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.4779982420492048</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.6959574282127341</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.6890450053428911</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4710006125796701</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.4616193243041714</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.015238287489412</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.006719347110073826</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.796242042604334</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.555067410571356</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3096823189946426</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.303062787534969</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.195157573242332</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1813083163294041</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.08977339293387349</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.0756761836096584</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8329117187329308</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8181744724957738</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.460900696221851</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.258926319010259</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6684214420044752</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6540857731708747</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4832788445886559</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4907721009368957</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5588426695979213</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5471017777795952</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.7528313680799072</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7462369255805787</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.8345184188691818</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8423995645274274</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7736243661343776</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.7737102310130062</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7070846213498601</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.708902559631193</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6706427843809306</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6721778787887128</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6294913924195733</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6272163792515731</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.5726323876952769</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5742545921537479</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7371493358565354</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.737863570506293</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.542838084141727</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5452133329001988</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.5723954283944508</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5712103791873885</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6504185448021113</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6501052220075076</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6575837232173206</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6600919698334762</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6088949089582616</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6135241912486571</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.281589366675803</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.283200380509283</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.000789487760333</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.002143514418029</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.88146816691801</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8804464714611685</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6428663916686896</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6420777056737985</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05697872723808399</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.05815382147503</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8701957959448159</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.868760312612898</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8701957959448159</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.868760312612898</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.138988843856866</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.139480714747027</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.1756743164203457</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1750844578965781</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.018917406449122</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.020519913449131</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8853539876718006</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8878265095678948</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.8913908353028993</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8943020089092345</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.040568635430809</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.041735907425502</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7821166674566479</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7802000162418239</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4041435592637659</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4026402148894909</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3871252864745541</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3876295174821904</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.140868491386421</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.143764927835679</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5804502582057058</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5722551863684966</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8415153585659837</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8387053375823426</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02345955933741962</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02182851298209151</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7179288655143272</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7213851632685244</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6798582424434149</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6856896399996799</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2164032531648565</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.213639092694858</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2771646504917252</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2787001073939316</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2400256276961328</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2441375667494341</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02940207817617193</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.02974063033618801</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2276492662612771</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2285377908666701</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3750158895047663</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3720658271254155</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1518730252825341</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1457474944635073</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.2931341081926423</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2873496399856877</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4296035517446482</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4297902016075099</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1788521006528057</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1772469030888964</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.002115023716400856</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.005104228670945052</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01610214313746201</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.01797973650680831</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.2109766638337482</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.206273642404834</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1245958191332861</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.1146695936244079</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5709733586288821</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5619836103334567</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.6593271603819536</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6453011581504108</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.05359113141359903</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.06202817891958429</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4246222004514313</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4173501474610523</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.4779982420492048</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.4661501841543312</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.6890450053428911</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.6793498920093999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.4616193243041714</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4501088550390517</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.006719347110073826</v>
       </c>
+      <c r="N23" t="n">
+        <v>-0.003548676437948622</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.555067410571356</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.327875181843423</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.303062787534969</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.2980958526551751</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1813083163294041</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1691661171937679</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.0756761836096584</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.0634699995716089</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8181744724957738</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.806010270811133</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.258926319010259</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.082853499555795</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6540857731708747</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6425980575068332</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4907721009368957</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4954324837746087</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5471017777795952</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5376824427731896</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7462369255805787</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7412548956670749</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8423995645274274</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.8485785186527768</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.7737102310130062</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.7745208307804639</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.708902559631193</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7118062870647945</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6721778787887128</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.674900282687269</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6272163792515731</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6259673096784886</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5742545921537479</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.5762157802123608</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.737863570506293</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7390816998321742</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5452133329001988</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5478738518807146</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.5712103791873885</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5716340838030732</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6501052220075076</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6505656161546239</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6600919698334762</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6630713713133579</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6135241912486571</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6193199516553742</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.283200380509283</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.284952672889923</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.002143514418029</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.003523818245048</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8804464714611685</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8795072304854894</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6420777056737985</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6414316625618586</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.05815382147503</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.05938816892157672</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.868760312612898</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8673382324965325</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.868760312612898</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8673382324965325</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.139480714747027</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.139824428795499</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1750844578965781</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1747160956910347</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.020519913449131</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.022187164319065</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8878265095678948</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8905116931630486</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8943020089092345</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8982728268414923</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.041735907425502</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.044320628369283</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7802000162418239</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7791996250515639</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4026402148894909</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4023756139932185</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3876295174821904</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3879051589044771</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.143764927835679</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.148049449405278</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5722551863684966</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5656754176019513</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8387053375823426</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8369434930222261</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02182851298209151</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02127226263888486</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7213851632685244</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7261156526625986</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6856896399996799</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6929110008322937</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.213639092694858</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2118667684557863</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2109882148331458</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2787001073939316</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2793020923570642</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2790666899601203</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2441375667494341</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2472161537314162</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2493368564385359</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.02974063033618801</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.03071681582589129</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03223859973476871</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2285377908666701</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2284998933090776</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2276702295113165</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3720658271254155</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3700144451782662</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3688008954764657</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1457474944635073</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1405647412431064</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1362849091654254</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2873496399856877</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.282991153910005</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2799835056006633</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4297902016075099</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4291866612634972</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4279199560978243</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1772469030888964</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.176344167883663</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1760802441315965</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.005104228670945052</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.009299640980374127</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01446965669159919</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.01797973650680831</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02006580735222931</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02232463524029228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.206273642404834</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.1993789965724475</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1907182614454261</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.1146695936244079</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.102471931569647</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0885226072407119</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5619836103334567</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5498174582048032</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5351402051065315</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6453011581504108</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6297276653086581</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.613090013645827</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.06202817891958429</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.07037916100497743</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07859296945098027</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4173501474610523</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4091996973908547</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4004075141166942</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.4661501841543312</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4514442792950968</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.434540240673098</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.6793498920093999</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6674952515933892</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6540509110686575</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4501088550390517</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.4369651510460372</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4226486676943552</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>-0.003548676437948622</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.01514212134937037</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02767112068261991</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.327875181843423</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.117460703324006</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.925728045253889</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.2980958526551751</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2945850229093873</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2923396602738536</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1691661171937679</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.1586908415937264</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1498131679641713</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.0634699995716089</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.05307925167711211</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04440415632521851</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.806010270811133</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7962911922199494</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7888547967758671</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.082853499555795</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.931507616094253</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.80345542120025</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6425980575068332</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6337107333660277</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6271640581275549</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4954324837746087</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4976744190406188</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4978915341616721</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5376824427731896</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5303857589845878</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5250016368730054</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7412548956670749</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7377147283516161</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7354447487251349</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.8485785186527768</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.8532405706176763</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8565720975500544</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.7745208307804639</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7759598044374806</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.777928761326932</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7118062870647945</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7155991147306636</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7200929221519748</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.674900282687269</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6785997705589175</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6830751538652481</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6259673096784886</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6256015949527934</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6259816841563289</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.5762157802123608</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5784468498126828</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5808803528519939</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7390816998321742</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7407471754940677</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7427969830964934</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5478738518807146</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5507243670676554</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5536811331453142</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.5716340838030732</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.5734184539660087</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.576323849082486</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6505656161546239</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6516704305503593</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6532973507272232</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6630713713133579</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6664097011043051</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6700023818368632</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6193199516553742</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6260287946305059</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6334119014180395</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.284952672889923</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.286871801810674</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.288973829779031</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.003523818245048</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.004966964109841</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.00650088910649</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8795072304854894</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.8787254424327713</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8781591945888401</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6414316625618586</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6409742573158563</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6407390600474037</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.05938816892157672</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.06068047698041935</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06202798607491479</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8673382324965325</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8660064416435256</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8648277138693918</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8673382324965325</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8660064416435256</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8648277138693918</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.139824428795499</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.140135305052401</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.140506826939457</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1747160956910347</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1745752278779049</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.174662191470809</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.022187164319065</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.023946891947809</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.025819070949864</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8905116931630486</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8933621222011922</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8963360751404963</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8982728268414923</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9031413180167853</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9087482464168485</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.044320628369283</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.048102919737715</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.0528720696564</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7791996250515639</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7790363348415635</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7796261854117366</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4023756139932185</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4031864498251687</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4049132571904611</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3879051589044771</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3879701709778287</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3878444624785629</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.148049449405278</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.15350588436076</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159924479454534</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5656754176019513</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5605882991002087</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5568630763340242</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8369434930222261</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8361923911266753</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8363934034377949</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02127226263888486</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02164126409552751</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02279234689934571</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7261156526625986</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7318678281875393</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7384082241605199</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6929110008322937</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7011768643852268</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7101789725791851</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2109882148331458</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.2109020425945883</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2790666899601203</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2780969681468554</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2493368564385359</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2505851164650158</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03223859973476871</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03421576535464416</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2276702295113165</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2261797076071229</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3688008954764657</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3683546171167079</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1362849091654254</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1328564052136134</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2799835056006633</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2782283465059947</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4279199560978243</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.4261109155009255</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1760802441315965</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1763876566017404</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01446965669159919</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.02039643330935469</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02232463524029228</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02471992579479382</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.1907182614454261</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1806926371663257</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.0885226072407119</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.0733035216426984</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.5351402051065315</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.5185734467340106</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.613090013645827</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.5958254916022093</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07859296945098027</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08661776677221319</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4004075141166942</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3911917038409306</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.434540240673098</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4160481639440219</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6540509110686575</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.6395286692330444</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.4226486676943552</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4075780825152323</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.02767112068261991</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.04078398914777824</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.925728045253889</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.753807573442983</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2923396602738536</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2911777979485664</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.1498131679641713</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1424412365321332</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.04440415632521851</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.03732690576424655</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7888547967758671</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7835142196953588</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.80345542120025</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.697072259187276</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6271640581275549</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6226938964376248</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4978915341616721</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.496451514739744</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5250016368730054</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5213154318104619</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7354447487251349</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7342761275776784</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8565720975500544</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.8587560386379742</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.777928761326932</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7803305137332901</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7200929221519748</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.725111737327012</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6830751538652481</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6881380716816444</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6259816841563289</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6269773479106444</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5808803528519939</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5834523268225211</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7427969830964934</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7451650446066261</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5536811331453142</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5566719174564192</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.576323849082486</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5801236970674105</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6532973507272232</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6553327715803414</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6700023818368632</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6737540416554831</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6334119014180395</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.641249172682863</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.288973829779031</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.291266613339358</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.00650088910649</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.008145736402406</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8781591945888401</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8778511967510076</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6407390600474037</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6407485361908486</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06202798607491479</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06342677789969686</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8648277138693918</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8638514426207239</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8648277138693918</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8638514426207239</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.140506826939457</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.14101247628772</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.174662191470809</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1749725124752984</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.025819070949864</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.02781677477454</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8963360751404963</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.899397198897138</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9087482464168485</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9149408809464809</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.0528720696564</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.058429963066818</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7796261854117366</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7808830664560308</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4049132571904611</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4074034230963113</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3878444624785629</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3875490483607572</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.159924479454534</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.167106111706729</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5568630763340242</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5543647625575674</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8363934034377949</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.837472346045691</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02279234689934571</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02459071922406526</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7384082241605199</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7455246146535514</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7101789725791851</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7196466630478624</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.2109020425945883</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2115064768720688</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2780969681468554</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2764986923240152</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2505851164650158</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2510523905912615</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03421576535464416</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.0365618984226869</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2261797076071229</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2241528600780314</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3683546171167079</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3685988311210636</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1328564052136134</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1302189586473282</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2782283465059947</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2776112986564273</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.4261109155009255</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4238723404419082</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1763876566017404</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1771973640284912</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.02039643330935469</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02687905750097726</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02471992579479382</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02721608499780431</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1806926371663257</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1696726915544303</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.0733035216426984</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.05725256089581836</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.5185734467340106</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5006863459758037</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.5958254916022093</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5783215337904326</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08661776677221319</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09440393142201819</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3911917038409306</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3817490258549974</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4160481639440219</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.3965211315805964</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.6395286692330444</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6243800324011826</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4075780825152323</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.3921264414921168</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.04078398914777824</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.05416967838837736</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.753807573442983</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.602171415461485</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2911777979485664</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.2909283067665573</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1424412365321332</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1364666938155377</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.03732690576424655</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.03171724141117069</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7835142196953588</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7800670296230262</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.697072259187276</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.610603614902513</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6226938964376248</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6200382721819993</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.496451514739744</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4936924892389152</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5213154318104619</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5191135290441776</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7342761275776784</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7340460951615977</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.8587560386379742</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8599682586368476</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7803305137332901</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.7830716190691061</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.725111737327012</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7304942701936773</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6881380716816444</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.6936156810388222</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6269773479106444</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6284673701150137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5834523268225211</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.5861036377260816</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7451650446066261</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7477849801742358</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5566719174564192</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5596356847831404</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5801236970674105</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.5846078847129155</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6553327715803414</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6576729787118492</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6737540416554831</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.6775794951008364</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.641249172682863</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.6493420005570611</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.291266613339358</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.293751038513196</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.008145736402406</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.009914715102719</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8778511967510076</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.877830414576787</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6407485361908486</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6410154001237249</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06342677789969686</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06487204538554103</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8638514426207239</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8631145957567183</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8638514426207239</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8631145957567183</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.14101247628772</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.141707691101936</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1749725124752984</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1754977270716954</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.02781677477454</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.0299470314982</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.899397198897138</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9025141209131711</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9149408809464809</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9215758252263879</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.058429963066818</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.064593534186959</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7808830664560308</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7827209443495182</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4074034230963113</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4105134713089007</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3875490483607572</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3871053411135295</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.167106111706729</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.174865382937839</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5543647625575674</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5529574859609543</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.837472346045691</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8393444035496296</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02459071922406526</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02691141540204745</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7455246146535514</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7530272429310176</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7196466630478624</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7293462474160765</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2115064768720688</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2127017585070328</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2764986923240152</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2743768445848653</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2510523905912615</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2508327989229632</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.0365618984226869</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.03919587671265116</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2241528600780314</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.2217058932825068</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3685988311210636</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3694535234148968</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1302189586473282</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1283063619183978</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2776112986564273</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.2780081132347832</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4238723404419082</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4213077305312898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1771973640284912</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.178440630714581</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02687905750097726</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03373562467727861</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02721608499780431</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02977919081547315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1696726915544303</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1579941615377144</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.05725256089581836</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.04075991480281048</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5006863459758037</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.481990096685729</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5783215337904326</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5609141062224203</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09440393142201819</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.1019061912805702</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3817490258549974</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3722532955089086</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.3965211315805964</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3764508796228418</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6243800324011826</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.608995977634008</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.3921264414921168</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3766193655611943</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.05416967838837736</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.06755861308618069</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.602171415461485</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.470743873019934</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.2909283067665573</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2914324581939391</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1364666938155377</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.131770063992349</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.03171724141117069</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.02743736937321858</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7800670296230262</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7783028283277245</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.610603614902513</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.542220002567882</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6200382721819993</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6189427153902913</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4936924892389152</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4899207724870998</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5191135290441776</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5181879107753509</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7340460951615977</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7346004419388027</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8599682586368476</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8603747458019028</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.7830716190691061</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7860642977485716</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7304942701936773</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7360955343860177</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.6936156810388222</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.6993523869210003</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6284673701150137</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6303407084208361</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.5861036377260816</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5887808967062055</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7477849801742358</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7505922835631796</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5596356847831404</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5625220506730677</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.5846078847129155</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.589585057047586</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6576729787118492</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6602248539711302</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.6775794951008364</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6814042369027129</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.6493420005570611</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.6575148660100403</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.293751038513196</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.296422184080252</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.009914715102719</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.011814962234419</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.877830414576787</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.8781137407789016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6410154001237249</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6415439597786842</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06487204538554103</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.06635832607035298</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8631145957567183</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8626428241481683</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8631145957567183</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8626428241481683</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.141707691101936</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.142631877519475</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1754977270716954</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1762261558239866</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.0299470314982</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.032211659808449</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9025141209131711</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9056600232369229</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9215758252263879</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9285210154775587</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.064593534186959</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.07119635982254</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7827209443495182</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7850556805819533</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4105134713089007</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4141106913883791</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3871053411135295</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3865345709816979</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.174865382937839</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.183032730117977</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5529574859609543</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5525073048082663</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8393444035496296</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8419183415135193</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02691141540204745</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.02964024537033669</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7530272429310176</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7607492324037979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7293462474160765</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7390795832552187</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2127017585070328</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2143920438526052</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2743768445848653</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2718328837557051</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2508327989229632</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2500203565431262</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.03919587671265116</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04204292191085725</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.2217058932825068</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2189453371718692</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3694535234148968</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3708379328696602</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1283063619183978</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1270488722273233</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.2780081132347832</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2792898432466108</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4213077305312898</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4185104979822403</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.178440630714581</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1800505341869622</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03373562467727861</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.04080438980506255</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02977919081547315</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03237769990959946</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1579941615377144</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.1459555515018132</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.04075991480281048</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.02416646188708743</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.481990096685729</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4629350935049498</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5609141062224203</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5438878831701649</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.1019061912805702</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1090850688304345</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3722532955089086</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3628547780978306</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3764508796228418</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3562660319663784</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.608995977634008</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5937083515767065</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3766193655611943</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.3613349490995684</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.06755861308618069</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.0807222129984639</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.470743873019934</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.359004592762933</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2914324581939391</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.2925449455047612</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.131770063992349</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1282254165383613</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.02743736937321858</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.02434619430033254</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7783028283277245</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7780096174548613</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.542220002567882</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.490064682896515</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6189427153902913</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6191644729878758</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4899207724870998</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4854097824268252</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5181879107753509</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5183397630547028</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7346004419388027</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7357953669340113</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8603747458019028</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8601295701461542</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7860642977485716</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7892277998567038</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7360955343860177</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7417876954701146</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.6993523869210003</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.705210756034016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6303407084208361</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6324971908663459</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5887808967062055</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5914370134361455</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7505922835631796</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7535259727770753</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5625220506730677</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5652905651635287</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.589585057047586</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.59488397470702</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6602248539711302</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6629061775127896</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6814042369027129</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.6851645349282587</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.6575148660100403</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6656159567033662</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.296422184080252</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.299270401223024</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.011814962234419</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.013848388104283</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.8781137407789016</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8787076541653206</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6415439597786842</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6423314194497688</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.06635832607035298</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.06787970227014485</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8626428241481683</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8624516645102126</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8626428241481683</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8624516645102126</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.142631877519475</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.14381041839757</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1762261558239866</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1771436192844546</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.032211659808449</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.034608071649555</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9056600232369229</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9088122000973128</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9285210154775587</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9356570020039781</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.07119635982254</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.078089519365648</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7850556805819533</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7878064703242059</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4141106913883791</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4180741929960216</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3865345709816979</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3858573258749645</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.183032730117977</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.191455692735043</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5525073048082663</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5528845044095269</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8419183415135193</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8451000352179598</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.02964024537033669</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03267431282643776</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7607492324037979</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7685463303969735</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7390795832552187</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7486820369479824</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2143920438526052</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2164868489343457</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2718328837557051</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2689626701493584</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2500203565431262</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2487067495218041</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04204292191085725</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04503527417595317</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2189453371718692</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.2159672128057858</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3708379328696602</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.372672574984146</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1270488722273233</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1263752695329406</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2792898432466108</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2813270875383197</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4185104979822403</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4155635933030539</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1800505341869622</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1819631400063317</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.04080438980506255</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.04794414791412499</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03237769990959946</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03498292805853509</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.1459555515018132</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1338172276691306</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.02416646188708743</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.007763838506230983</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4629350935049498</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4439103319072196</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5438878831701649</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5274778350726792</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1090850688304345</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1159077561628504</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3628547780978306</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3536803807030716</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.3562660319663784</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.3363324222483097</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5937083515767065</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5787925362663565</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.3613349490995684</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3465050011964745</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.0807222129984639</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.09347138748129302</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.359004592762933</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.266083006106884</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.2925449455047612</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2941344324644841</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1282254165383613</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1257043309838531</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.02434619430033254</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.02230287773989391</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7780096174548613</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7789789954152554</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.490064682896515</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.452294089090911</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6191644729878758</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6204756790467386</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4854097824268252</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.480399939681607</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5183397630547028</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5193822027619688</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7357953669340113</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7374987450318843</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8601295701461542</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8593735156165713</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7892277998567038</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7924892965388235</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7417876954701146</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7474602809992779</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.705210756034016</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.711071755984622</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6324971908663459</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6348478185629618</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5914370134361455</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5940314475964554</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7535259727770753</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7565297812003547</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5652905651635287</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5679098815715886</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.59488397470702</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.600354079869497</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6629061775127896</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6656455976018821</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.6851645349282587</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6888072035618681</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6656159567033662</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6735169922830406</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.299270401223024</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.302282302815297</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.013848388104283</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.016012490339556</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8787076541653206</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8796098271041258</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6423314194497688</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6433691162189925</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.06787970227014485</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.06942997206537455</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8624516645102126</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8625477860747726</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8624516645102126</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8625477860747726</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.14381041839757</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.145256632002148</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1771436192844546</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1782340882489897</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.034608071649555</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.037130031605712</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9088122000973128</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9119516169067604</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9356570020039781</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9428776300477383</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.078089519365648</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.085141846948872</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7878064703242059</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.7908969374657335</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4180741929960216</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.422295470260644</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3858573258749645</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3850931991157575</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.191455692735043</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.199999477983364</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5528845044095269</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5539654068428636</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8451000352179598</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8487953597296003</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03267431282643776</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03592217129038716</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7685463303969735</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7762961282738909</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7486820369479824</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7580200162763514</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2164868489343457</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2189020900030072</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2689626701493584</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2658549728827713</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2487067495218041</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.24697960563958</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04503527417595317</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04811254971395455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.2159672128057858</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.2128566348609986</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.372672574984146</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3748808409904656</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1263752695329406</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.1262145801340818</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2813270875383197</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2839933820946677</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4155635933030539</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4125394690146013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1819631400063317</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1841183796747523</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.04794414791412499</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.05503399513545064</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03498292805853509</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03756934182242585</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1338172276691306</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1218017210760915</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.007763838506230983</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.008204165409710557</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4439103319072196</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.425244588494901</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5274778350726792</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5118718810632962</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1159077561628504</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1223485293927966</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3536803807030716</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3448344637890815</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.3363324222483097</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3169550552152183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5787925362663565</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5644710474298837</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3465050011964745</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3323173099327779</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.09347138748129302</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1056542624560703</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.266083006106884</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.190843160395087</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2941344324644841</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2960837016714407</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1257043309838531</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1240791842623541</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.02230287773989391</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.02116975021142313</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7789789954152554</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7810102740714595</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.452294089090911</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.427111146869444</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6204756790467386</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6226655968742266</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.480399939681607</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4750993640406611</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5193822027619688</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5211422191011418</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7374987450318843</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7395908899147219</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8593735156165713</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8582332937968469</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7924892965388235</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.7957843713008262</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7474602809992779</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7530198800424567</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.711071755984622</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7168344538231805</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6348478185629618</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6373147432904196</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5940314475964554</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.5965302162106898</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7565297812003547</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7595529551235287</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5679098815715886</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.570356857157054</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.600354079869497</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6058654163007596</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6656455976018821</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6683823356154757</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6888072035618681</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6922891317393072</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6735169922830406</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.6811124301918836</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.302282302815297</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.305441659085523</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.016012490339556</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.018301125236835</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8796098271041258</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8808106513904864</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6433691162189925</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6446436724096577</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.06942997206537455</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.07100279505728198</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8625477860747726</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8629302394987119</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8625477860747726</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8629302394987119</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.145256632002148</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.146973644386678</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1782340882489897</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1794802655431265</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.037130031605712</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.039768365813259</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9119516169067604</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.9150624845443315</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9428776300477383</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9500902307044993</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.085141846948872</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.09223969510965</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.7908969374657335</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7942559264784913</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.422295470260644</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4266785600544324</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3850931991157575</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3842605318439776</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.199999477983364</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.208546957771615</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5539654068428636</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5556337356969252</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8487953597296003</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8529124974950816</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03592217129038716</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03930368568233229</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7762961282738909</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7838968888060959</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7580200162763514</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7669882288726236</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2189020900030072</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.221560774810838</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2658549728827713</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2625904764157319</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.24697960563958</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2449212043768902</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04811254971395455</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05122183896904551</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.2128566348609986</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2096877696098027</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3748808409904656</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3773902174257812</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.1262145801340818</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.126497484593114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2839933820946677</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2871678258295204</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4125394690146013</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4095003121405244</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1841183796747523</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1864606695790292</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.05503399513545064</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.06197260871225445</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03756934182242585</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04011469650698761</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1218017210760915</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.1100949742195494</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.008204165409710557</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.02353920715625348</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.425244588494901</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4072089704509605</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5118718810632962</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.4972143005041119</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1223485293927966</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1283888012622454</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3448344637890815</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3364001133223872</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3169550552152183</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.2983813028751464</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5644710474298837</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5509177715910458</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3323173099327779</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.3189186459882545</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1056542624560703</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1171533682932056</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.190843160395087</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.131958574910887</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2960837016714407</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.2982894736074509</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1240791842623541</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1232258040942933</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.02116975021142313</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.02081462264132371</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7810102740714595</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7839136216527891</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.427111146869444</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.412791895454212</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6226655968742266</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6255420532983478</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4750993640406611</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4696851935982116</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5211422191011418</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.523461930923196</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7395908899147219</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7419648902388754</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8582332937968469</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8568212460791373</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.7957843713008262</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7990571828836737</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7530198800424567</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7583894487121607</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7168344538231805</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7224152964828253</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6373147432904196</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6398309851436556</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.5965302162106898</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5989057096788032</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7595529551235287</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7625507214628193</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.570356857157054</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5726156244791345</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6058654163007596</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6113080391403151</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6683823356154757</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6710656879854967</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6922891317393072</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6955766314791733</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.6811124301918836</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6883182073923141</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.305441659085523</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.30873019892973</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.018301125236835</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.020705227860015</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8808106513904864</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8822946607441955</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6446436724096577</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6461380523491691</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.07100279505728198</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.07259181641628337</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8629302394987119</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8635916746723826</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8629302394987119</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8635916746723826</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.146973644386678</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.148956148196964</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1794802655431265</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1808640988661046</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.039768365813259</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.042511615337116</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.9150624845443315</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9181318587291785</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9500902307044993</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9572154237995056</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.09223969510965</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.099286319271211</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7942559264784913</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.7978180325236067</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4266785600544324</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4311398734682762</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3842605318439776</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3833762365983238</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.208546957771615</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.216998220368563</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5556337356969252</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5577815846336359</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8529124974950816</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.857363725768217</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03930368568233229</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.04274966258434308</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7838968888060959</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7912660960762546</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7669882288726236</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7755067981193364</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.221560774810838</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2243933982836165</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2625904764157319</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2592412055206026</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2449212043768902</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2426075687305407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05122183896904551</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05431759846486287</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2096877696098027</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.206524074762077</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3773902174257812</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3801331732583669</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.126497484593114</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.127157435206833</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2871678258295204</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2907370331277532</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4095003121405244</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4064984826683583</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1864606695790292</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1889393087189835</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.06197260871225445</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.06867716908595603</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04011469650698761</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.04260005211309431</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.1100949742195494</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.09884829471680738</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.02353920715625348</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.03808527207702366</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4072089704509605</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.3900204699304766</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.4972143005041119</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.483609641768706</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1283888012622454</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1340168986825241</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3364001133223872</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.328440735334057</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.2983813028751464</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2808049808074607</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5509177715910458</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5382625920149279</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.3189186459882545</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.306418261269754</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1171533682932056</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1278824834947409</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.131958574910887</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.087977162622982</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.2982894736074509</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.300661963464792</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1232258040942933</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1230255437558819</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.02081462264132371</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.02111255331709822</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7839136216527891</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7875123467421974</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.412791895454212</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.407705964651178</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6255420532983478</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6289321864927855</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4696851935982116</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4643053687404325</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.523461930923196</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5261992621315049</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7419648902388754</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7445265940800325</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8568212460791373</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8552354447354042</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7990571828836737</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8022603658419121</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7583894487121607</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7635073249786402</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7224152964828253</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7277470819165711</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6398309851436556</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6423399497963911</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5989057096788032</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.6011363635537742</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7625507214628193</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7654844854657458</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5726156244791345</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5746766645856694</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6113080391403151</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6165910368667186</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6710656879854967</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6736543799254098</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6955766314791733</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6986446637408095</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6883182073923141</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.6950701535909198</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.30873019892973</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.312128318061749</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.020705227860015</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.023213474780852</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8822946607441955</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.884041835293917</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6461380523491691</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6478325166080805</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.07259181641628337</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07419077216139611</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8635916746723826</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8645195017030762</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8635916746723826</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8645195017030762</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.148956148196964</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.151192028757755</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1808640988661046</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1823672261193834</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.042511615337116</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.045346630723887</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9181318587291785</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9211492706627125</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9572154237995056</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9641866236001895</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.099286319271211</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.106200979962639</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.7978180325236067</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.8015239101294975</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4311398734682762</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4356077728030318</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3833762365983238</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3824556890378501</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.216998220368563</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.225269785731194</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5577815846336359</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5603100412313738</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.857363725768217</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8620667482091319</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.04274966258434308</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04620130608909714</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7912660960762546</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7983388262978468</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7755067981193364</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7835183435466453</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2243933982836165</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2273380934782825</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2592412055206026</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2558702931319962</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2426075687305407</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2401078823445785</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05431759846486287</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05736138366421494</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.206524074762077</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.2034187551344273</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3801331732583669</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3830477612498331</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.127157435206833</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1281315119739564</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2907370331277532</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2945965054939969</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4064984826683583</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4035771027498062</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1889393087189835</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1915086912211174</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.06867716908595603</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07508203044197301</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.04260005211309431</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.04500969513325892</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.09884829471680738</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.0881808104807706</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.03808527207702366</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.05172507622232417</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.3900204699304766</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3738462096754707</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.483609641768706</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4711269104331209</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1340168986825241</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1392276395718615</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.328440735334057</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3210018565290223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2808049808074607</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2643710025121505</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5382625920149279</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5265961971126559</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.306418261269754</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2948916780901639</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1278824834947409</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1377832956153124</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.087977162622982</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.057376566256702</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.300661963464792</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3031242369034389</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1230255437558819</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1233668402891749</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.02111255331709822</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.02194713206877308</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7875123467421974</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.7916444398695668</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.407705964651178</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.410331549311029</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6289321864927855</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6326826243320638</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4643053687404325</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4590807423946764</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5261992621315049</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.529228133849027</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7445265940800325</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7471943116193052</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8552354447354042</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8535601097789085</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8022603658419121</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8053547281579067</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7635073249786402</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7683260418710153</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7277470819165711</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7327777149346337</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6423399497963911</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6447947982497573</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.6011363635537742</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6032062269040466</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7654844854657458</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7683218128532906</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5746766645856694</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5765359061062256</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6165910368667186</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6216412728642832</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6736543799254098</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6761158183185183</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6986446637408095</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.7014759893699226</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.6950701535909198</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.7013221911234342</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.312128318061749</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.315615696651803</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.023213474780852</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.025812885514073</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.884041835293917</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8860287794356401</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6478325166080805</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6497054708698631</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07419077216139611</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07579357801891014</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8645195017030762</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8656969761781552</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8645195017030762</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8656969761781552</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.151192028757755</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.153663845341801</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1823672261193834</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1839713559774694</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.045346630723887</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.048259105968373</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9211492706627125</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.9241063920914081</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9641866236001895</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9709493261946402</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.106200979962639</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.112917846300544</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.8015239101294975</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8053203982348108</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4356077728030318</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4400219580487894</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3824556890378501</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3815126757001878</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.225269785731194</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.233293578660237</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5603100412313738</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5631295172925124</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8620667482091319</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8669456339447402</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04620130608909714</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.04960954891335095</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7983388262978468</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.8050660210245379</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7835183435466453</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7909851096419498</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2273380934782825</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.230340584549979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2558702931319962</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.2525320224799437</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2401078823445785</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2374841784419568</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05736138366421494</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06032146405268929</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.2034187551344273</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.2004153764962849</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3830477612498331</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3860779780726558</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1281315119739564</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1293610476075052</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.2945965054939969</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.2986515110967956</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4035771027498062</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.4007707493824968</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1915086912211174</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1941283668707548</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07508203044197301</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08113722925185396</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.04500969513325892</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04733099010647276</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.0881808104807706</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.07818225260322233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.05172507622232417</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.06437619163432232</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3738462096754707</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3588081167363716</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4711269104331209</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4598038607709087</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1392276395718615</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1440217712657811</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3210018565290223</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3141130354833526</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2643710025121505</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2491803613011103</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5265961971126559</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5159749061581501</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2948916780901639</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2843846025793308</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1377832956153124</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1468220092474362</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.057376566256702</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.038610475176025</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3031242369034389</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3056114188780852</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1233668402891749</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1241463207008325</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.02194713206877308</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.02321134497722664</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.7916444398695668</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.7961634858665324</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.410331549311029</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.41926555898507</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6326826243320638</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6366592021878139</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4590807423946764</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4541073982191534</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.529228133849027</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5324382652832219</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7471943116193052</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7498982993879344</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8535601097789085</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8518662668466515</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8053547281579067</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8083087978066449</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7683260418710153</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7728110139768068</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7327777149346337</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7374688268869692</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6447947982497573</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6471577147495761</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6032062269040466</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6051044618754081</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7683218128532906</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7710362447610215</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5765359061062256</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5781938680601914</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6216412728642832</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6264019384006302</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6761158183185183</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6784252836345556</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.7014759893699226</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7040602842194027</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.7013221911234342</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7070444167547715</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.315615696651803</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.319171830230689</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.025812885514073</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.028489360589912</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8860287794356401</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8882297694323739</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6497054708698631</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6517342097674733</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07579357801891014</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.07739440369064883</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8656969761781552</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8671041957802524</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8656969761781552</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8671041957802524</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.153663845341801</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.156350161474902</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1839713559774694</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1856585873613832</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.048259105968373</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.051234051456313</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.9241063920914081</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.9269967355854836</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9709493261946402</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.977460245233064</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.112917846300544</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.119384770852736</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8053203982348108</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8091604959829946</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4400219580487894</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4443327179490111</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3815126757001878</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3805593869068352</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.233293578660237</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.241015739028219</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5631295172925124</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5661598344388987</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8669456339447402</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8719314241557703</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.04960954891335095</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05293430095294774</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.8050660210245379</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8114127282359129</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7909851096419498</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7978862061609709</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.230340584549979</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2333539835166653</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.2525320224799437</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2492720827607336</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2374841784419568</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2347912513784419</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06032146405268929</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.06317235545824548</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.2004153764962849</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1975485884850782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3860779780726558</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3891739243908303</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1293610476075052</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1307920521186242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.2986515110967956</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3028175549333346</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.4007707493824968</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3981062111530285</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1941283668707548</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.19676297955385</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08113722925185396</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08680690428072402</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04733099010647276</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.04955418101480231</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.07818225260322233</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.06891592260629684</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.06437619163432232</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.07598705659431135</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3588081167363716</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3449878092839188</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4598038607709087</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4496512524801782</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1440217712657811</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1484053215068786</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3141130354833526</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3077898082874164</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2491803613011103</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2352952375823341</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5159749061581501</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5064253845394467</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2843846025793308</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2749168309964432</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1468220092474362</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1549860022284882</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.038610475176025</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.030146630579004</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3056114188780852</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3080698022293312</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1241463207008325</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1252695199739861</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.02321134497722664</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02480808153896677</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.7961634858665324</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.8009390532160908</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.41926555898507</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.433229619554256</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6366592021878139</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6407463186879131</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4541073982191534</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4494590783836008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5324382652832219</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.5357346665101272</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7498982993879344</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7525800818986347</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8518662668466515</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8502125806236305</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8083087978066449</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8110982626706983</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7728110139768068</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7769391586592164</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7374688268869692</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7417943241724159</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6471577147495761</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6493991113777017</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6051044618754081</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6068248031051381</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7710362447610215</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7736069874854449</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5781938680601914</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5796548588304986</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6264019384006302</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6308309935553704</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6784252836345556</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6805650935686076</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7040602842194027</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7063932495649689</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7070444167547715</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7122211421079744</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.319171830230689</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.322776478495375</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.028489360589912</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.031228155837498</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8882297694323739</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8906176711173195</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6517342097674733</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6538955584880439</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.07739440369064883</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.07898773395267597</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8671041957802524</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8687190003964018</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8671041957802524</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8687190003964018</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.156350161474902</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.159226723015005</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1856585873613832</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1874116720543691</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.051234051456313</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.054256206595159</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.9269967355854836</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.9298153891181447</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.977460245233064</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9836863511796458</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.119384770852736</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.125561993317594</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8091604959829946</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8130032198269197</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4443327179490111</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4485000919698829</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3805593869068352</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3796064452612536</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.241015739028219</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.248395334219731</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5661598344388987</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5693301101055787</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8719314241557703</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8769624616332985</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05293430095294774</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05614365017602104</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8114127282359129</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.8173563623251751</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7978862061609709</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8042150049997884</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2333539835166653</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2363384673833595</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2492720827607336</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2461279857015143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2347912513784419</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2320767467052766</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.06317235545824548</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.0658942987239719</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1975485884850782</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.194844915699146</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3891739243908303</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3922918021494675</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1307920521186242</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1323754663250421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3028175549333346</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3070205147753585</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3981062111530285</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3956032769488219</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.19676297955385</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.1993821099271482</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08680690428072402</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09206768684239527</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.04955418101480231</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.05167215906123962</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.06891592260629684</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.06042172877498631</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.07598705659431135</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.08653299849254753</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3449878092839188</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3324315253785682</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4496512524801782</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4406569680296087</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1484053215068786</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1523889028671828</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3077898082874164</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.3020356096643997</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2352952375823341</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2227440729483797</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5064253845394467</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.4979491534519767</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2749168309964432</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2664860485685632</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1549860022284882</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.162280606121508</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.030146630579004</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.030497304842294</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3080698022293312</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3104558953628654</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1252695199739861</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.126651271705994</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02480808153896677</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.0266503427854516</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.8009390532160908</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.805856657488092</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.433229619554256</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.451072575913784</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6407463186879131</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6448460164271036</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4494590783836008</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4451896413299481</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.5357346665101272</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5390368966996413</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7525800818986347</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.755191658768868</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8502125806236305</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8486463078340284</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8110982626706983</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8137053409777948</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7769391586592164</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7806975010833275</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7417943241724159</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7457389175891935</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6493991113777017</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6514968010077837</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6068248031051381</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6083650001522608</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7736069874854449</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.776018512787692</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5796548588304986</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5809262393048676</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6308309935553704</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6348995583767589</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6805650935686076</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6825237645210912</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7063932495649689</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7084757418598701</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7122211421079744</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7168489527846107</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.322776478495375</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.326410037287731</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.031228155837498</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.034014293825471</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8906176711173195</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8931647311631099</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6538955584880439</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6561664167874375</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.07898773395267597</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.08056841771015469</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8687190003964018</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8705177720458738</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8687190003964018</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8705177720458738</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.159226723015005</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.16226748662158</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1874116720543691</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1892142250361578</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.054256206595159</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.05731039382227</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.9298153891181447</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9325587828895394</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9836863511796458</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9896038586831102</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.125561993317594</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.131420818936116</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8130032198269197</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.8168133685826899</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4485000919698829</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4524929812505393</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3796064452612536</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.378662961527133</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.248395334219731</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.255403026114545</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5693301101055787</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5725784845703666</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8769624616332985</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8819844933578381</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05614365017602104</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.05921304402201137</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.8173563623251751</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.822885021399125</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.8042150049997884</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8099767236100648</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2363384673833595</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2392608670208708</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2461279857015143</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2431295982574891</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2320767467052766</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2293813909549903</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.0658942987239719</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.06847270846421535</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.194844915699146</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1923235836500872</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3922918021494675</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3953937820917807</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1323754663250421</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1340672717090666</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3070205147753585</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.311196509786519</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3956032769488219</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3932755311373708</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.1993821099271482</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.2019600450818116</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09206768684239527</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.09690710711251925</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.05167215906123962</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05368021020203001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.06042172877498631</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.05271920123012903</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.08653299849254753</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09601236671083742</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3324315253785682</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3211549612745903</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4406569680296087</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4327899145610021</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1523889028671828</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1559870025768271</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.3020356096643997</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2968436253857801</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2227440729483797</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2115264904767807</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.4979491534519767</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4905268266502668</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2664860485685632</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2590714470335753</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.162280606121508</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1687260656965633</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.030497304842294</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.038243070449139</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3104558953628654</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3127354413949723</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.126651271705994</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1282158276855688</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.0266503427854516</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.02866120412722643</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.805856657488092</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8108173856636658</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.451072575913784</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.471770099702727</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6448460164271036</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6488768628374036</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4451896413299481</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4413354868159247</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5390368966996413</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5422781513807432</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.755191658768868</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7576946379293054</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8486463078340284</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8472043230050711</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8137053409777948</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8161181127543022</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7806975010833275</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7840818012406517</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7457389175891935</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7492966730577295</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6514968010077837</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.653435164094521</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6083650001522608</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6097262612115466</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.776018512787692</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.778260098615266</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5809262393048676</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5820177546029569</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6348995583767589</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6385903036947396</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6825237645210912</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6842951912075979</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7084757418598701</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7103129397711814</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7168489527846107</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7209348317400962</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.326410037287731</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.330053839462802</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.034014293825471</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.036832914527539</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8931647311631099</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8958432476908951</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6561664167874375</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6585242113640373</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.08056841771015469</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08213170594198657</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8705177720458738</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.872476134298964</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8705177720458738</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.872476134298964</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.16226748662158</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.165445504196247</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1892142250361578</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1910508872680247</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.05731039382227</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.06038181648806</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9325587828895394</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9352244856680976</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9896038586831102</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9951971973757865</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.131420818936116</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.136942307445015</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.8168133685826899</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8205612192889719</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4524929812505393</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4562882391612527</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.378662961527133</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.377736610945563</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.255403026114545</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.262019733694163</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5725784845703666</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5758517248795095</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8819844933578381</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8869505904797631</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.05921304402201137</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.06212447348557443</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.822885021399125</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8279958896330849</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8099767236100648</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8151862127295613</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2392608670208708</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2420941943201785</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2431295982574891</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2402997540309243</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2293813909549903</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2267393276184511</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.06847270846421535</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07089761086676294</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1923235836500872</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1899973530060481</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3953937820917807</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3984477703090453</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1340672717090666</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1358284816848642</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.311196509786519</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3152915603212342</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3932755311373708</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3911311354571181</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.2019600450818116</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2044754945984025</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.09690710711251925</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1013220511764574</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05368021020203001</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05557575305754489</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.05271920123012903</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04581041695129309</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09601236671083742</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.1044428472062866</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3211549612745903</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3111479200244983</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4327899145610021</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.4260036579937661</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1559870025768271</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.159217282161927</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2968436253857801</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.2921985442037094</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2115264904767807</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2016179728833557</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4905268266502668</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4841220297154851</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2590714470335753</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2526371092299871</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1687260656965633</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1743547145123031</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.038243070449139</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.052050667521172</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3127354413949723</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.314882434838583</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1282158276855688</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.129896757387058</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.02866120412722643</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.03077358128085846</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8108173856636658</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8157372575378528</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.471770099702727</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.494421951019302</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6488768628374036</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6527726950399571</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4413354868159247</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4379179003356042</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5422781513807432</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5454042327429148</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7576946379293054</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7600593285074017</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8472043230050711</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8459141787097847</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8161181127543022</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8183298368072399</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7840818012406517</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.787095231784501</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7492966730577295</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7524696143567002</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.653435164094521</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6552043292625477</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6097262612115466</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6109127121276279</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.778260098615266</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7803253347376373</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5820177546029569</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5829409360053474</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6385903036947396</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6418958797857972</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6842951912075979</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6858778596618077</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7103129397711814</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7119135613124453</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7209348317400962</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7244943801867155</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.330053839462802</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.33369039064274</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.036832914527539</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.039669568163503</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8958432476908951</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.8986261276293044</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6585242113640373</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6609472634058592</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08213170594198657</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.08367327936039101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.872476134298964</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8745695534507494</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.872476134298964</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8745695534507494</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.165445504196247</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.16873367104026</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1910508872680247</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1929074456835923</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.06038181648806</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.063456303754785</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9352244856680976</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9378110276134566</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9951971973757865</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.000457993431139</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.136942307445015</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.142115999751318</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8205612192889719</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8242221732242452</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4562882391612527</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4598697655733857</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.377736610945563</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3768337242056182</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.262019733694163</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.268235322740449</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5758517248795095</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5791047367750984</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8869505904797631</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8918209244690738</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.06212447348557443</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.06486567689630121</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8279958896330849</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.832693743648299</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.8151862127295613</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.819865956613595</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2420941943201785</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2448171297032611</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2402997540309243</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.2376549126373825</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2267393276184511</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2241785307370799</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07089761086676294</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07316308539245009</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1899973530060481</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1878733414122655</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3984477703090453</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4014270986190838</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1358284816848642</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1376250367746512</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3152915603212342</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3192610893404068</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3911311354571181</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.3891735827439097</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2044754945984025</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.206911269310512</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1013220511764574</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1053172941639189</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05557575305754489</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05735807549401134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04581041695129309</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.03968278411995942</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.1044428472062866</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1118580091858409</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3111479200244983</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3023786989126841</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.4260036579937661</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4202397561800185</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.159217282161927</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.1620999049799129</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.2921985442037094</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2880781876622215</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2016179728833557</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.192974236853551</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4841220297154851</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4786849756420759</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2526371092299871</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2471351271252202</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1743547145123031</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1792083894875022</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.052050667521172</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.070685747479069</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.314882434838583</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3168781563500246</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.129896757387058</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1316366726868815</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.03077358128085846</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03292984200107645</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8157372575378528</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8205463900345497</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.494421951019302</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.518247383715272</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6527726950399571</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6564812819236809</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4379179003356042</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4349452816045142</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5454042327429148</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5483724480435423</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7600593285074017</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7622638206564819</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8459141787097847</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8447951696109623</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8183298368072399</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8203382725283581</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.787095231784501</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7897471276136703</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7524696143567002</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7552664001979807</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6552043292625477</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6567993829188334</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6109127121276279</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6119308811189369</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7803253347376373</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7822116130362333</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5829409360053474</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5837085725745684</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6418958797857972</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6448174115082893</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6858778596618077</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6872741046660655</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7119135613124453</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7132891396768198</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7244943801867155</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7275501591226772</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.33369039064274</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.337303545990361</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.039669568163503</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.04251045382999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.8986261276293044</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.9014873393095081</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6609472634058592</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6634150786313341</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.08367327936039101</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08518926656394558</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8745695534507494</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8767738456462557</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8745695534507494</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8767738456462557</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.16873367104026</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.172105346960939</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1929074456835923</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1947709150664368</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.063456303754785</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.066520506138423</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9378110276134566</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9403177465006209</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.000457993431139</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.005384082518364</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.142115999751318</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.146938702317486</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8242221732242452</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8277763682851902</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4598697655733857</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4632276233754429</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3768337242056182</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3759593883014185</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.268235322740449</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.274047346071875</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5791047367750984</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5823000112161114</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8918209244690738</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8965624328865039</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.06486567689630121</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06742937605793344</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.832693743648299</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.836989574839837</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.819865956613595</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8240442866583821</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2448171297032611</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2474134881307136</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.2376549126373825</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2352058420867257</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2241785307370799</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.2217212720605113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07316308539245009</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.07526672175265084</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1878733414122655</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1859538171412476</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4014270986190838</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4043101598752113</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1376250367746512</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1394276236118903</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3192610893404068</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3230693083727417</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.3891735827439097</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3874024116709479</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.206911269310512</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.2092539363489197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1053172941639189</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.1089041271769397</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05735807549401134</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.0590280762283307</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.03968278411995942</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03431165013459342</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1118580091858409</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1183041169885879</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3023786989126841</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.294798166976554</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4202397561800185</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4154307731567136</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.1620999049799129</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1646569045736278</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2880781876622215</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.2844550042643916</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.192974236853551</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.185535263490581</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4786849756420759</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4741556849225636</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2471351271252202</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2425084340408264</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1792083894875022</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1833360961641683</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.070685747479069</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.093021222699899</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3168781563500246</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3187102412803524</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1316366726868815</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1333868174564442</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03292984200107645</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.0350813008069221</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8205463900345497</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8251880205529231</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.518247383715272</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.54257912426845</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6564812819236809</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6599629471641848</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4349452816045142</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4324152322761554</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5483724480435423</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.55115047314078</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7622638206564819</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7642930740435344</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8447951696109623</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.843859376274899</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8203382725283581</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8221450213551158</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7897471276136703</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7920518216647351</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7552664001979807</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7577010911200209</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6567993829188334</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6582196191140474</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6119308811189369</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6127892166222693</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7822116130362333</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7839196180659186</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5837085725745684</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5843342503988329</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6448174115082893</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6473630805356001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6872741046660655</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6884894191604898</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7132891396768198</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7144533629897443</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7275501591226772</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7301301663403712</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.337303545990361</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.340878634154216</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.04251045382999</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.04534260800393</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.9014873393095081</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.904402269407505</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6634150786313341</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.665908567368189</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08518926656394558</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.0866762534572522</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8767738456462557</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8790655955290079</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8767738456462557</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8790655955290079</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.172105346960939</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.175534860488738</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1947709150664368</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1966295863530844</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.066520506138423</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.069562045664369</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9403177465006209</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.9427446543989094</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.005384082518364</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.009978569290009</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.146938702317486</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.15141334337255</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8277763682851902</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.831208271162295</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4632276233754429</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4663571911134873</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3759593883014185</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3751175533853304</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.274047346071875</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.279459851196964</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5823000112161114</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5854070279417573</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8965624328865039</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.9011484033437227</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06742937605793344</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.06981255383253368</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.836989574839837</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8408993340660312</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.8240442866583821</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8277538039383762</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2474134881307136</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2498716783193535</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2352058420867257</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2329583042884089</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.2217212720605113</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2193846217556968</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.07526672175265084</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07720910066517349</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1859538171412476</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1842369529598863</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4043101598752113</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.4070800059865169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1394276236118903</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1412114352026669</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3230693083727417</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3266885241541233</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3874024116709479</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3858138749855579</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.2092539363489197</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.2114934616392245</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.1089041271769397</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.1120990895640743</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.0590280762283307</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06058801621888852</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03431165013459342</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.02966270977910368</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1183041169885879</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1238372265555607</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.294798166976554</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.288343502129188</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4154307731567136</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4115029683038844</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1646569045736278</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1669116026076888</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.2844550042643916</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.281297420835445</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.185535263490581</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1792289619827991</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4741556849225636</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4704668493038099</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2425084340408264</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2386933430247328</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1833360961641683</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1867919277533872</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.093021222699899</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.118041895152986</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3187102412803524</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3203717937485734</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1333868174564442</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1351065562966824</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.0350813008069221</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03718762866998068</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8251880205529231</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.829617436607912</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.54257912426845</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.566856297087007</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6599629471641848</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6631891885038945</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4324152322761554</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4303164866039164</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.55115047314078</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5537152110793677</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7642930740435344</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7661380319219029</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.843859376274899</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8431126704003215</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8221450213551158</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8237548989805843</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7920518216647351</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.794027576142853</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7577010911200209</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.759792016145332</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6582196191140474</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6594678375687701</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6127892166222693</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6134976432187274</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7839196180659186</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7854528299925071</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5843342503988329</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5848319562888918</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6473630805356001</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6495468087680495</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6884894191604898</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6895318203643965</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7144533629897443</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7154214805315287</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7301301663403712</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7322664572137375</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.340878634154216</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.344402534455484</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.04534260800393</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.048154047302313</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.904402269407505</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9073479936163442</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.665908567368189</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.6684102022230725</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.0866762534572522</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.08813128472873846</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8790655955290079</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8814224929035777</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8790655955290079</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8814224929035777</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.175534860488738</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.178997906852087</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1966295863530844</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.1984730457099851</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.069562045664369</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.072569624823173</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.9427446543989094</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9450923221023312</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.009978569290009</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.014248944086375</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.15141334337255</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.155547910350118</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.831208271162295</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8345062603573978</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4663571911134873</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4692583618086735</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3751175533853304</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3743111424681137</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.279459851196964</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.284482266980022</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5854070279417573</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5884016348155676</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.9011484033437227</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.9055579998328738</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.06981255383253368</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07201577936349052</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8408993340660312</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.844442800881731</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8277538039383762</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.83103000237556</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2498716783193535</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2521841669472578</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2329583042884089</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.230913728075073</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2193846217556968</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.217180966187601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07720910066517349</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.07899330453245153</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1842369529598863</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1827175319915761</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.4070800059865169</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4097239234965676</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1412114352026669</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1429558875543591</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3266885241541233</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3300983960443916</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3858138749855579</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3844015563786293</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.2114934616392245</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2136228489597197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.1120990895640743</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.1149228132203429</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06058801621888852</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06204128331889106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.02966270977910368</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02569419968818828</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1238372265555607</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.128520575134759</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.288343502129188</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2829415718104257</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4115029683038844</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4083786631226438</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1669116026076888</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.168888081853159</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.281297420835445</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2785710488162217</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1792289619827991</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.173974456975927</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4704668493038099</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4675463465880411</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2386933430247328</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2356217918571307</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1867919277533872</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.1896332345790207</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.118041895152986</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.144845976010311</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3203717937485734</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3218605546142328</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1351065562966824</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.136762791694923</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03718762866998068</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03921620484535554</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.829617436607912</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8338008511242159</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.566856297087007</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.590616616021985</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6631891885038945</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.666141321357348</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4303164866039164</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.428630675611983</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5537152110793677</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5560516695215274</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7661380319219029</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7677947736589692</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8431126704003215</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.842555667872702</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8237548989805843</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8251753463074035</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.794027576142853</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7956956142657107</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.759792016145332</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.7615607447471281</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6594678375687701</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.660549695083383</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6134976432187274</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6140671586308475</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7854528299925071</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7868170490612529</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5848319562888918</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5852157420204299</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6495468087680495</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6513870517265576</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6895318203643965</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6904112751032344</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7154214805315287</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7162097759154761</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7322664572137375</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7339939124492635</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.344402534455484</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.347863713224217</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.048154047302313</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.050933870040497</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9073479936163442</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9103034704336795</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.6684102022230725</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6709041207422987</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.08813128472873846</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.08955185820619251</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8814224929035777</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8838235944563022</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8814224929035777</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8838235944563022</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.178997906852087</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.182471850498471</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.1984730457099851</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2002921685110813</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.072569624823173</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.075533098617296</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9450923221023312</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9473617789071033</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.014248944086375</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.018206263985506</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.155547910350118</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.159354474224934</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8345062603573978</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8376622090450332</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4692583618086735</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4719347949054467</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3743111424681137</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3735421614355318</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.284482266980022</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.289128376719512</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5884016348155676</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.591265418425859</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.9055579998328738</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9097757517284282</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07201577936349052</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07404258483035953</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.844442800881731</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8476425763260845</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.83103000237556</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8339100816876087</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2521841669472578</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2543469571360992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.230913728075073</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2290698577366911</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.217180966187601</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2151185293464762</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.07899330453245153</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08062446227804111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1827175319915761</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1813876000978945</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4097239234965676</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.4122329990081143</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1429558875543591</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1446443056592855</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3300983960443916</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.333285169042095</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3844015563786293</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3831569332229507</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2136228489597197</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.2156377829042692</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.1149228132203429</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1173989817877738</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06204128331889106</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.06339217263662007</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02569419968818828</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.0223588728386008</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.128520575134759</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1324222646243077</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2829415718104257</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2785119522949753</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4083786631226438</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4059782949328183</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.168888081853159</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1706107171044917</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2785710488162217</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2762397469170439</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.173974456975927</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1696850003917949</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4675463465880411</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4653194198024048</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2356217918571307</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2332233015491786</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.1896332345790207</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1919190357810846</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.144845976010311</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.172644046734554</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3218605546142328</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3231781289927541</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.136762791694923</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1383293343753253</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.03921620484535554</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04114143372515431</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8338008511242159</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8377142558009765</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.590616616021985</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.613488113664705</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.666141321357348</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6688091686167084</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.428630675611983</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4273339207425947</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5560516695215274</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5581518755804084</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7677947736589692</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7692637151963841</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.842555667872702</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8421846199968249</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8251753463074035</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.8264158846083079</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7956956142657107</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7970792543427224</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.7615607447471281</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7630311662218275</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.660549695083383</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6614731133813867</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6140671586308475</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6145094732170616</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7868170490612529</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7880199483023289</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5852157420204299</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5854994447550589</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6513870517265576</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6529057065344361</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6904112751032344</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6911391850788221</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7162097759154761</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.7168351061389333</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7339939124492635</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7353491520608256</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.347863713224217</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.351252224964968</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.050933870040497</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.053672321173413</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9103034704336795</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.913249667253654</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6709041207422987</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6733761801961373</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.08955185820619251</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.0909359129370806</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8838235944563022</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8862495178470029</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8838235944563022</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8862495178470029</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.182471850498471</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.185935942831824</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2002921685110813</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.202079092099691</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.075533098617296</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.078443514000706</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9473617789071033</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9495544256484441</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.018206263985506</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.02186440251815</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.159354474224934</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.162848303505683</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8376622090450332</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8406710750465864</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4719347949054467</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4743932258206037</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3735421614355318</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3728118073634568</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.289128376719512</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.293415381746421</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.591265418425859</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5939850785853293</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9097757517284282</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.9137910223766474</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07404258483035953</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07589889582076777</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8476425763260845</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8505231959490952</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8339100816876087</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8364319376356038</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2543469571360992</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2563590884078957</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2290698577366911</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2274213680538582</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2151185293464762</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2132018871139101</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08062446227804111</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.08210933104481405</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1813876000978945</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1802370615072886</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.4122329990081143</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4146016845265723</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1446443056592855</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1462635899115363</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.333285169042095</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3362409026458593</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3831569332229507</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3820698840613027</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.2156377829042692</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2175362816010968</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1173989817877738</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.1195534046986654</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.06339217263662007</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.0646456842233043</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.0223588728386008</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.01960575267300352</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1324222646243077</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1356132327261222</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2785119522949753</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2749695903634738</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4059782949328183</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.40422217153553</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1706107171044917</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1721037649136132</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2762397469170439</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2742665443000818</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1696850003917949</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1662705161602447</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4653194198024048</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4637105382397023</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2332233015491786</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2314266598398892</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1919190357810846</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1937086617483189</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.172644046734554</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.200755952500617</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3231781289927541</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3243292767417577</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1383293343753253</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1397862475985587</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04114143372515431</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04294404578619993</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8377142558009765</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8413422789345897</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.613488113664705</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.635180636920158</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6688091686167084</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6711898133078726</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4273339207425947</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4263982571494218</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5581518755804084</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5600138421928722</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7692637151963841</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7705488641108822</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8421846199968249</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8419922364858466</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.8264158846083079</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8274876183039469</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7970792543427224</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7982031455006072</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7630311662218275</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7642286758987319</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6614731133813867</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6622477447108295</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6145094732170616</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6148366921649804</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7880199483023289</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7890706591638802</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5854994447550589</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5856964590229836</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6529057065344361</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6541271357976337</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6911391850788221</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.691727931464785</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.7168351061389333</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7173145042567901</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7353491520608256</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7363695918705748</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.351252224964968</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.354559683753332</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.053672321173413</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.056360825151886</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.913249667253654</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.9161696276125437</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6733761801961373</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6758139712703207</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.0909359129370806</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09228181186032208</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8862495178470029</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8886825755355832</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8862495178470029</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8886825755355832</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.185935942831824</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.189371465527318</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.202079092099691</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.2038271709623272</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.078443514000706</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.081293120946019</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9495544256484441</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9516719592161511</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.02186440251815</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.025239370163542</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.162848303505683</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.166047068387231</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8406710750465864</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8435305037205957</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4743932258206037</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.476642835589657</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3728118073634568</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3721205735367803</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.293415381746421</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.297363057086708</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5939850785853293</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5965518169334413</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.9137910223766474</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.9175974712491128</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07589889582076777</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.07759251599853199</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8505231959490952</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8531103580952576</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8364319376356038</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8386333161708468</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2563590884078957</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2582221635594512</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2274213680538582</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2259604392997596</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2132018871139101</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2114324657902132</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.08210933104481405</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08345591623341569</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1802370615072886</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1792542161715655</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4146016845265723</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4168273708871164</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1462635899115363</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1478038723329651</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3362409026458593</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3389627118774009</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3820698840613027</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3811291410009223</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2175362816010968</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2193183637749041</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.1195534046986654</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1214132037699849</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.0646456842233043</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.06580733905350786</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.01960575267300352</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01738167096054619</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1356132327261222</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1381655014553209</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2749695903634738</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2722271175121493</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.40422217153553</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4030319441949554</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1721037649136132</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1733910114948052</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2742665443000818</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.272614430444683</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1662705161602447</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1636397920423372</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4637105382397023</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4626449606821131</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2314266598398892</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2301613444890631</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1937086617483189</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1950606134137438</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.200755952500617</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.228606062408171</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3243292767417577</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3253212675661853</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1397862475985587</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1411191826293756</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04294404578619993</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04461039836494637</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8413422789345897</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.84467706888898</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.635180636920158</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.6554772992382</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6711898133078726</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6732864263681428</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4263982571494218</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.425792890030336</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5600138421928722</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5616405964619</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7705488641108822</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7716571336341516</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8419922364858466</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8419684363996451</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8274876183039469</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8284027871192093</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7982031455006072</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7990926024548135</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7642286758987319</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7651794655859319</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6622477447108295</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6628844951700997</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6148366921649804</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.615061039638114</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7890706591638802</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7899793931158383</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5856964590229836</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5858195555546305</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6541271357976337</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6550773061345491</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.691727931464785</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6921904771767019</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7173145042567901</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7176648425769723</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7363695918705748</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7370926366514426</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.354559683753332</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.35777920994725</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.056360825151886</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.058991991099427</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.9161696276125437</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.9190484879980062</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6758139712703207</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6782067970453507</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09228181186032208</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09358831994351377</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8886825755355832</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8911068555953447</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8886825755355832</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8911068555953447</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.189371465527318</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.192761809339495</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.2038271709623272</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2055309176779215</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.081293120946019</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.084075359243029</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9516719592161511</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9537163070503011</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.025239370163542</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.028348706022239</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.166047068387231</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.16897013383513</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8435305037205957</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.846240448331976</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.476642835589657</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4786946815469164</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3721205735367803</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3714683499275712</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.297363057086708</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.3009929987492</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5965518169334413</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.5989607477547263</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.9175974712491128</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9211925210964619</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.07759251599853199</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.07913266566199484</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8531103580952576</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8554302613033393</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8386333161708468</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8405511176725772</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2582221635594512</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2599399064296362</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2259604392997596</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2246772877275689</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2114324657902132</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2098090182019185</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08345591623341569</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08467313038375063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1792542161715655</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1784262387178805</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4168273708871164</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.4189099757891906</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1478038723329651</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1492581704751195</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3389627118774009</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3414520334093812</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3811291410009223</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3803226881522624</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2193183637749041</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.2209857336704261</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1214132037699849</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.123006108376869</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.06580733905350786</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.06688301374070076</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01738167096054619</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01563259689449353</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1381655014553209</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1401506891842169</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2722271175121493</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2701968316748953</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4030319441949554</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.402331818495631</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1733910114948052</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1744954769945124</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.272614430444683</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.271247019253972</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1636397920423372</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1617023368525115</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4626449606821131</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4620500228846573</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2301613444890631</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2293587034084738</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1950606134137438</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1960316230208103</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.228606062408171</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.255717278506147</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3253212675661853</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3261633009679016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1411191826293756</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.142318719497175</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04461039836494637</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04613178908283075</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.84467706888898</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8477172199413904</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.6554772992382</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.67422604639265</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6732864263681428</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6751071781621474</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.425792890030336</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4254852898301194</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5616405964619</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5630392773057004</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7716571336341516</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7725977181018036</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8419684363996451</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8421010253290748</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8284027871192093</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8291743680618736</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7990926024548135</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7997730352932622</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7651794655859319</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7659099141250821</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6628844951700997</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6633951046646036</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.615061039638114</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6151946234089175</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7899793931158383</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7907571009283266</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5858195555546305</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5858807422643314</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6550773061345491</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6557830381425236</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6921904771767019</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6925400243930216</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7176648425769723</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7179025526772178</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7370926366514426</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7375550024489755</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.35777920994725</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.360905356949712</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.058991991099427</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.061559594529571</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.9190484879980062</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.9218734521248606</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6782067970453507</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6805456232063072</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09358831994351377</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.09485457865226725</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8911068555953447</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8935082565327022</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8911068555953447</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8935082565327022</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.192761809339495</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.196092497780108</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2055309176779215</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.2071859327372307</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.084075359243029</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.086784824950576</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9537163070503011</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9556895703656721</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.028348706022239</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.031210939724673</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.16897013383513</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.171637939056491</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.846240448331976</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8488028114090469</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4786946815469164</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4805611887471444</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3714683499275712</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3708545181792119</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.3009929987492</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.3043279606737</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.5989607477547263</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6012103373369267</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9211925210964619</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9245768393442338</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.07913266566199484</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.08052957295420833</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8554302613033393</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8575090439053303</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8405511176725772</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8422208374261843</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2599399064296362</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2615177533046303</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2246772877275689</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2235606487461988</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2098090182019185</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2083280723200509</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08467313038375063</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08577049062637213</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1784262387178805</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1777395999546605</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.4189099757891906</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4208515515497836</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1492581704751195</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1506220455289433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3414520334093812</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3437139268554417</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3803226881522624</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3796381079982729</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.2209857336704261</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2225414864481653</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.123006108376869</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.1243598539875145</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.06688301374070076</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06787879401405533</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01563259689449353</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.01430476745101523</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1401506891842169</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1416387700176124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2701968316748953</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2687923649136412</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.402331818495631</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4020495239877177</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1744954769945124</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1754391734544472</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.271247019253972</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2701290959168106</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1617023368525115</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1603699242828631</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4620500228846573</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4618561723712737</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2293587034084738</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2289529101124238</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1960316230208103</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1966759000569707</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.255717278506147</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.281704127415801</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3261633009679016</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3268659901354884</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.142318719497175</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1433797244798028</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04613178908283075</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04750379221712067</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8477172199413904</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8504667534108445</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.67422604639265</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.691331463360168</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6751071781621474</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6766642393118074</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4254852898301194</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.425442133955147</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5630392773057004</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5642203071766747</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7725977181018036</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7733815307638641</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8421010253290748</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8423762988046571</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8291743680618736</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8298157266222457</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7997730352932622</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8002694691858577</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7659099141250821</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7664460728029772</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6633951046646036</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6637917815826682</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6151946234089175</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6152492379707993</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7907571009283266</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7914151702449297</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5858807422643314</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5858911627847407</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6557830381425236</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6562713631015358</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6925400243930216</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.692789724335296</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7179025526772178</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7180433981373816</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7375550024489755</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7377921595198469</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.360905356949712</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.363934022391043</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.061559594529571</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.064058539593922</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.9218734521248606</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9246337300300312</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6805456232063072</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6828230049673315</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.09485457865226725</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.09608007759570983</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8935082565327022</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8958744828138246</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8935082565327022</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8958744828138246</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.196092497780108</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.199351164439541</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.2071859327372307</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2087888260563709</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.086784824950576</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.089417220201485</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9556895703656721</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9575939750627143</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.031210939724673</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.033845121596341</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.171637939056491</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.174071459813808</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8488028114090469</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8512211096969227</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4805611887471444</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4822557008716387</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3708545181792119</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3702780403877348</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.3043279606737</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.307391278204015</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6012103373369267</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.6033018766602327</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9245768393442338</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9277538410749173</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.08052957295420833</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08179411585166402</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8575090439053303</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8593723184189072</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8422208374261843</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8436761287046435</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2615177533046303</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2629624796738067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2235606487461988</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2225982113745089</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2083280723200509</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2069843486917175</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08577049062637213</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.08675785381504611</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1777395999546605</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.177180432742017</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4208515515497836</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4226559164687415</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1506220455289433</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1518932699934301</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3437139268554417</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3457564188101215</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3796381079982729</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.3790628781447574</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2225414864481653</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.223989835890174</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.1243598539875145</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1255016779373684</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06787879401405533</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.06880084664950784</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.01430476745101523</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01334563086705557</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1416387700176124</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1426970626815843</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2687923649136412</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2679300579803765</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4020495239877177</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4021170642431197</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1754391734544472</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.176242913163032</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2701290959168106</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.269227055650759</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1603699242828631</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.159557846467039</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4618561723712737</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4619977739786358</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2289529101124238</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2288817137898665</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1966759000569707</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1970445456076172</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.281704127415801</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.306265224249327</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3268659901354884</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3274409079771708</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1433797244798028</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1443007333975202</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04750379221712067</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04872562611764128</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8504667534108445</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8529341637057257</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.691331463360168</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.70674692417516</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6766642393118074</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6779728738899025</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.425442133955147</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4256301039572985</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5642203071766747</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5651966404756787</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7733815307638641</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7740207036421447</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8423762988046571</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8427795732439944</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8298157266222457</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8303403157699805</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8002694691858577</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8006061481815789</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7664460728029772</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7668132395617646</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6637917815826682</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6640868896557567</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6152492379707993</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.61523620372765</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7914151702449297</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7919651611992758</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5858911627847407</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5858610281028381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6562713631015358</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6565689806111754</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.692789724335296</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6929524359124244</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7180433981373816</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7181022956290624</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7377921595198469</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7378378865982961</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.363934022391043</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.366862347716139</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.064058539593922</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.066484805587695</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9246337300300312</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.9273204487632929</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6828230049673315</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6850329957260838</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.09608007759570983</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09726462415490816</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8958744828138246</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.8981950074176976</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8958744828138246</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.8981950074176976</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.199351164439541</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.202527492083535</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2087888260563709</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2103371327373674</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.089417220201485</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.091969289807447</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9575939750627143</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9594318294544281</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.033845121596341</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.036270418298641</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.174071459813808</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.176291749291706</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8512211096969227</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8535001645418961</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4822557008716387</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4837920886061122</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3702780403877348</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3697375411789661</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.307391278204015</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.310206374059566</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.6033018766602327</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.6052389908929721</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9277538410749173</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.930729219294857</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08179411585166402</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08293751257740525</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8593723184189072</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8610447930543598</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.8436761287046435</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8449484752049496</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2629624796738067</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2642818631808326</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2225982113745089</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2217770037033881</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2069843486917175</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2057711441571187</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.08675785381504611</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08764518796540352</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.177180432742017</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1767348446963923</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4226559164687415</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.424328312646541</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1518932699934301</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1530715092090923</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3457564188101215</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3475898951120241</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.3790628781447574</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3785846213207891</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.223989835890174</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2253358655930668</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1255016779373684</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1264579056856086</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.06880084664950784</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.06965530928192699</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01334563086705557</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01270461638083571</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1426970626815843</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1433894300950439</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2679300579803765</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2675300642847465</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4021170642431197</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4024712691611751</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.176242913163032</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1769261636419718</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.269227055650759</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2685092437972963</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.159557846467039</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1591859016033099</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4619977739786358</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4624137095163887</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2288817137898665</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2290870036452741</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1970445456076172</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1971851182953883</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.306265224249327</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.329175358350243</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3274409079771708</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3279001928000143</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1443007333975202</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1450833677673661</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04872562611764128</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.04979955786401213</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8529341637057257</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8551315361268017</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.70674692417516</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.720467164157705</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6779728738899025</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6790506259317829</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4256301039572985</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4260165480649494</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5651966404756787</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5659830895150844</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7740207036421447</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7745281481135823</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8427795732439944</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8432956468041866</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8303403157699805</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8307614206845537</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8006061481815789</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8008062167435659</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7668132395617646</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7670356153975597</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6640868896557567</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6642926840027046</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.61523620372765</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6151662395835722</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7919651611992758</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.792418579127215</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5858610281028381</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5857995770406921</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6565689806111754</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6567018105596339</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6929524359124244</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6930405295604664</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7181022956290624</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7180931798719064</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7378378865982961</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7377239267704565</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.366862347716139</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.369688609771278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.066484805587695</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.068835381152313</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.9273204487632929</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.929926540861544</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6850329957260838</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6871710419917543</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09726462415490816</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.09840831185051369</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.8981950074176976</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.9004610073111747</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.8981950074176976</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.9004610073111747</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.202527492083535</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.205613120992272</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2103371327373674</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2118292253590139</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.091969289807447</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.094438747835293</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9594318294544281</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.961205488075191</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.036270418298641</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.038505770549692</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.176291749291706</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.178319552677888</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8535001645418961</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8556458188725014</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4837920886061122</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4851844128899183</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3697375411789661</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3692313827578476</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.310206374059566</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.312796342108746</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.6052389908929721</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6070271880365009</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.930729219294857</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.9335105067543662</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08293751257740525</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.08397105772455277</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8610447930543598</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8625499725460912</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.8449484752049496</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8460669601009494</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2642818631808326</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2654843828844629</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2217770037033881</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2210837300276227</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2057711441571187</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.204680680322075</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08764518796540352</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.08844237824377096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1767348446963923</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1763891807009766</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.424328312646541</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4258750921835603</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1530715092090923</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1541580201354219</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3475898951120241</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3492265449934375</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3785846213207891</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3781913117995538</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2253358655930668</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2265853042593893</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1264579056856086</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.127253620377307</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.06965530928192699</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07044819731337179</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01270461638083571</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01233374422433414</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1433894300950439</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.143775670257124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2675300642847465</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2675172067802474</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4024712691611751</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4030541711955356</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1769261636419718</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1775069452156135</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2685092437972963</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2679462068781623</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1591859016033099</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1591791405435492</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4624137095163887</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4630477945037823</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2290870036452741</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2295152071297915</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1971851182953883</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1971413351562378</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.329175358350243</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.350277413829952</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3279001928000143</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3282562105969708</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1450833677673661</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1457317890978713</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.04979955786401213</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05073034970215853</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8551315361268017</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8570737408651431</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.720467164157705</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.732521334214934</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6790506259317829</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6799165984875412</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4260165480649494</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4265700195432249</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5659830895150844</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5665957274201838</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7745281481135823</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7749171740930585</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8432956468041866</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8439091933240085</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8307614206845537</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8310919466672086</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8008062167435659</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8008914723545693</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7670356153975597</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.7671360359895634</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6642926840027046</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.664421093021256</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6151662395835722</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6150493660758953</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.792418579127215</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7927866828773388</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5857995770406921</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5857150615450989</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6567018105596339</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6566946322750155</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6930405295604664</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6930657324418119</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7180931798719064</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.718028907928837</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7377239267704565</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7374797350397103</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.369688609771278</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.372412107591838</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.068835381152313</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.071108189311416</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.929926540861544</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9324466162022433</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6871710419917543</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6892338686614605</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.09840831185051369</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.09951148814443522</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.9004610073111747</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9026652772892105</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.9004610073111747</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9026652772892105</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.205613120992272</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.208601533334783</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2118292253590139</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2132642248149909</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.094438747835293</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.096824197035568</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.961205488075191</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9629173209437148</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.038505770549692</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.040569609066174</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.178319552677888</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.180174990229577</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8556458188725014</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8576646813628102</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4851844128899183</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4864466399845228</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3692313827578476</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3687577327599316</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.312796342108746</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.315183603754209</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6070271880365009</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6086734480855668</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.9335105067543662</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9361066723440128</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.08397105772455277</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.08490590111312839</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8625499725460912</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8639099305328961</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8460669601009494</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8470581195667125</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2654843828844629</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2665789543309512</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2210837300276227</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2205050610675155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.204680680322075</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2037044161071327</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.08844237824377096</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.08915906545714111</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1763891807009766</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1761302385650897</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4258750921835603</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4273034329010834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1541580201354219</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1551553699294587</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3492265449934375</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3506798592318561</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3781913117995538</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3778714416159061</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2265853042593893</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2277443252136185</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.127253620377307</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1279124082900381</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07044819731337179</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07118532696576096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01233374422433414</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01218809034495985</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.143775670257124</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1439110789306046</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2675172067802474</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2678216117343981</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4030541711955356</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.4038132267061673</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1775069452156135</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.178001766933469</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2679462068781623</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2675108641937445</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1591791405435492</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1594683973646597</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4630477945037823</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4638490342689329</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2295152071297915</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2301175413658683</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1971413351562378</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1969528912048094</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.350277413829952</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.369474304628729</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3282562105969708</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3285212704932879</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1457317890978713</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1462521950659735</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05073034970215853</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05152475036020233</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8570737408651431</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8587777055855386</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.732521334214934</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.742966579653581</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6799165984875412</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6805908230127078</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4265700195432249</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4272607017132727</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5665957274201838</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.567051366156019</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7749171740930585</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7752011650525958</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8439091933240085</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8446050931651448</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8310919466672086</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8313442473199307</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8008914723545693</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.8008821823647954</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.7671360359895634</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7671357714209067</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.664421093021256</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6644835425604311</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6150493660758953</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6148948360942195</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7927866828773388</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7930803267966344</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5857150615450989</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5856147529916946</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6566946322750155</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6565708033650934</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6930657324418119</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6930390110858485</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.718028907928837</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7179211983520872</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7374797350397103</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.737132307658285</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.372412107591838</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.375033047201912</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.071108189311416</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.073302006164462</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9324466162022433</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.934876822243792</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6892338686614605</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6912193582587235</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.09951148814443522</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1005747223002689</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9026652772892105</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9048021271537905</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9026652772892105</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9048021271537905</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.208601533334783</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.21148791969794</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2132642248149909</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2146419114549857</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.096824197035568</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.099125043705083</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9629173209437148</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9645696877328552</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.040569609066174</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.042479624529156</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.180174990229577</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.181877303337003</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8576646813628102</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8595638978603195</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4864466399845228</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4875924049702711</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3687577327599316</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3683146248684523</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.315183603754209</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.317389631393622</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6086734480855668</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6101858532288122</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9361066723440128</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.9385277540057684</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.08490590111312839</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08575286621886616</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8639099305328961</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8651451458238233</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8470581195667125</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.847945869275575</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2665789543309512</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2675746994294976</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2205050610675155</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.220027879309028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2037044161071327</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2028333244173245</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.08915906545714111</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.08980451477654565</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1761302385650897</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1759454414379499</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4273034329010834</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4286210840435091</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1551553699294587</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1560671761539582</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3506798592318561</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3519641831001495</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3778714416159061</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3776141500833812</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2277443252136185</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2288193698554581</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1279124082900381</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1284561726440385</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07118532696576096</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.07187225339826354</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01218809034495985</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.0122261205255965</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1439110789306046</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1438461647622523</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2678216117343981</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2683791433679731</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.4038132267061673</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4047014029331682</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.178001766933469</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1784255965401262</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2675108641937445</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2671786093821648</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1594683973646597</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1599906286596166</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4638490342689329</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4647717408146917</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2301175413658683</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2308501365155148</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1969528912048094</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.196655382013723</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.369474304628729</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.386721073599561</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3285212704932879</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3287073896048955</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1462521950659735</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1466523599837444</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05152475036020233</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05219103309591164</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8587777055855386</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8602617672410323</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.742966579653581</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.751882170829111</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6805908230127078</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.681093715736117</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4272607017132727</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4280607305962557</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.567051366156019</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5673671068890868</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7752011650525958</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7753933056213914</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8446050931651448</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8453687052234482</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8313442473199307</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8315299898216079</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.8008821823647954</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8007969582241773</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7671357714209067</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7670543868094434</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6644835425604311</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6644908186669709</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6148948360942195</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6147110901936845</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7930803267966344</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7933098341473891</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5856147529916946</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5855049659653788</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6565708033650934</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6563520505773524</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6930390110858485</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6929704875428788</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7179211983520872</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7177806007940523</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.737132307658285</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7367060834465176</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.375033047201912</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.377552426854097</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.073302006164462</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.075416375746868</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.934876822243792</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.9372146970832922</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6912193582587235</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6931264272982491</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1005747223002689</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1015987738512018</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9048021271537905</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.9068672667270967</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9048021271537905</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.9068672667270967</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.21148791969794</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.214269033224103</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2146419114549857</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2159626380305734</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.099125043705083</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.101341410263142</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9645696877328552</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9661649163590698</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.042479624529156</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.044252587145227</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.181877303337003</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.183444657945614</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8595638978603195</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8613509497261822</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4875924049702711</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4886348200373408</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3683146248684523</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.367900012276173</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.317389631393622</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.319434733196631</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6101858532288122</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6115732588911793</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.9385277540057684</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.9407845291563075</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08575286621886616</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.08652230489478993</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8651451458238233</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8662743950790052</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.847945869275575</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8487514930729921</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2675746994294976</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.268480749701872</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.220027879309028</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2196394819704797</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2028333244173245</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.202058133586469</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.08980451477654565</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09038751227183775</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1759454414379499</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1758229707510172</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4286210840435091</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4298361418373303</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1560671761539582</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.1568978697997269</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3519641831001495</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3530943237960304</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3776141500833812</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3774093201723648</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2288193698554581</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2298169944132792</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1284561726440385</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1289050082776023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.07187225339826354</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07251422271554203</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.0122261205255965</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.01240990851599074</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1438461647622523</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.143626497901624</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2683791433679731</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2691316630079238</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4047014029331682</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4056771501888849</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1784255965401262</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.178791860195534</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2671786093821648</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.266927351084604</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1599906286596166</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1606890856842499</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4647717408146917</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4657755308067156</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2308501365155148</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2316740490988107</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.196655382013723</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1962803143411703</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.386721073599561</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.402017277652504</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3287073896048955</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3288261033580115</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1466523599837444</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1469412208093318</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05219103309591164</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.05273858124965565</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8602617672410323</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8615451022880327</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.751882170829111</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.759364199770991</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.681093715736117</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6814456167150258</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4280607305962557</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4289444261067257</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5673671068890868</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5675599591115572</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7753933056213914</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7755063581433205</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8453687052234482</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.846186084704236</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8315299898216079</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8316600539676747</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8007969582241773</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.8006526803201941</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7670543868094434</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.766909656739203</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6644908186669709</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6644529651348319</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6147110901936845</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6145057335311649</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7933098341473891</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7934848994813847</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5855049659653788</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5853910962455184</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6563520505773524</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6560583249799469</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6929704875428788</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6928693851724119</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7177806007940523</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7176164918504263</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7367060834465176</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7362229075944952</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.377552426854097</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.379971924767349</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.075416375746868</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.077451523252796</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.9372146970832922</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9394590192005173</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6931264272982491</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6949549025070951</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1015987738512018</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.1025845621447614</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.9068672667270967</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9088576827155622</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.9068672667270967</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9088576827155622</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.214269033224103</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.216943036161565</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2159626380305734</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2172272457030478</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.101341410263142</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.103474047521665</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9661649163590698</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9677052855487522</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.044252587145227</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.045904211235136</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.183444657945614</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.18489399964344</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8613509497261822</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8630334783635981</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4886348200373408</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4895863237765966</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.367900012276173</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3675118141711008</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.319434733196631</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.321337893323479</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6115732588911793</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.6128450048035048</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.9407845291563075</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9428882228072135</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.08652230489478993</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08722398504557798</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8662743950790052</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8673146946940371</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8487514930729921</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.849493683745105</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.268480749701872</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2693060811382381</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2196394819704797</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2193277444691731</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.202058133586469</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2013695347579543</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09038751227183775</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.0909162867383641</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1758229707510172</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1757518635509379</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4298361418373303</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4309568542868056</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.1568978697997269</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1576524817407749</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3530943237960304</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3540852110969275</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3774093201723648</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3772476453118895</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2298169944132792</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2307437390689842</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1289050082776023</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1292771298163851</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07251422271554203</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07311613662901423</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.01240990851599074</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01270525252203347</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.143626497901624</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1432926738180953</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2691316630079238</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2700271357555696</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4056771501888849</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4067042778086767</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.178791860195534</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1791124677292235</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.266927351084604</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2667375014968779</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1606890856842499</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1615133426268513</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4657755308067156</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4668252238582337</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2316740490988107</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2325551823705858</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1962803143411703</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1958551906624043</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.402017277652504</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.415399756105305</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3288261033580115</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.328888317199217</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1469412208093318</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1471285089660591</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.05273858124965565</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.053177521151713</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8615451022880327</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8626472332362869</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.759364199770991</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.765520845489021</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6814456167150258</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6816664065629956</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4289444261067257</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4298884425293134</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5675599591115572</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5676465243466101</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7755063581433205</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7755524843097744</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.846186084704236</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8470441514593667</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8316600539676747</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8317444615546374</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.8006526803201941</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.8004644668132344</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.766909656739203</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7667175265530224</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6644529651348319</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6643792120876592</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6145057335311649</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6142855315197464</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7934848994813847</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.7936145173459439</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5853910962455184</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5852776699978042</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6560583249799469</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.655707713854506</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6928693851724119</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.692744000286646</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7176164918504263</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7174370930987413</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7362229075944952</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7357020488191716</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.379971924767349</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.382293791066775</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.077451523252796</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.079408268510778</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9394590192005173</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.94160965721589</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6949549025070951</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6967053992168224</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.1025845621447614</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.103533137353571</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9088576827155622</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.9107715109681002</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9088576827155622</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.9107715109681002</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.216943036161565</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.219509343003108</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2172272457030478</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.2184369841374117</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.103474047521665</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.105524248337171</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9677052855487522</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9691930109717783</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.045904211235136</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.047449060224886</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.18489399964344</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.186240954747949</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8630334783635981</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8646191348967496</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4895863237765966</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4904585675891602</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3675118141711008</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3671479555102156</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.321337893323479</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.323116661690232</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.6128450048035048</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.6140106647653362</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9428882228072135</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.9448502528725595</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08722398504557798</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.08786700790428414</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8673146946940371</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.868281284992184</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.849493683745105</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8501886265512523</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_7.xlsx
+++ b/predicted_variables_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2693060811382381</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2700593786259778</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2193277444691731</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2190812475254683</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2013695347579543</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.2007583567793827</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.0909162867383641</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09139845424893694</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1757518635509379</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1757220781023162</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4309568542868056</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4319914541720456</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1576524817407749</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1583364527478422</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3540852110969275</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3549516092163025</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3772476453118895</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3771206701275567</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2307437390689842</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2316060182879074</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1292771298163851</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1295888461819268</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07311613662901423</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07368252849661459</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01270525252203347</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01308170395445328</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1432926738180953</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1428803748360207</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2700271357555696</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.271019606774195</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4067042778086767</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4077517512199442</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1791124677292235</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1793978593532543</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2667375014968779</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2665919211447255</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1615133426268513</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1624192031756183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4668252238582337</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4678906590002092</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2325551823705858</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.233464129838945</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1958551906624043</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1954036543710487</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.415399756105305</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.42693585690697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.328888317199217</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3289041955787499</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1471285089660591</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1472244273912394</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.053177521151713</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05351840144768091</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8626472332362869</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8635876084514168</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.765520845489021</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.770468200844924</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6816664065629956</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6817751952935014</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4298884425293134</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4308718486947241</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5676465243466101</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5676427397983971</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7755524843097744</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7755431078231612</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8470441514593667</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8479308137840051</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8317444615546374</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8317923326743882</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.8004644668132344</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.8002456801096682</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7667175265530224</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7664921138187484</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6643792120876592</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6642779318813095</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6142855315197464</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6140564214020354</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.7936145173459439</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7937069346133733</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5852776699978042</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5851684014516548</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.655707713854506</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6553164018854585</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.692744000286646</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6926016960121276</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7174370930987413</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7172495075253702</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7357020488191716</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7351602612149479</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.382293791066775</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.38452074529531</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.079408268510778</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.081287941307599</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.94160965721589</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.9436674224740522</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6967053992168224</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.6983792038475429</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.103533137353571</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1044456532624219</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.9107715109681002</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.9126079072095183</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.9107715109681002</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.9126079072095183</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.219509343003108</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.221968463785543</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.2184369841374117</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.2195934364874584</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.105524248337171</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.107493764051709</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9691930109717783</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9706302345581117</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.047449060224886</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.048900487430226</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.186240954747949</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.187499771828195</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8646191348967496</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8661154537045294</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4904585675891602</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4912623353119921</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3671479555102156</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3668064004163066</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.323116661690232</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.324787087449645</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.6140106647653362</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6150798333376924</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.9448502528725595</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.946682011569669</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.08786700790428414</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.08845975159541476</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.868281284992184</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8691876501924035</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8501886265512523</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8508501169504695</v>
       </c>
     </row>
   </sheetData>
